--- a/sqlserver2016/sql2016_ParamGenerator.xlsx
+++ b/sqlserver2016/sql2016_ParamGenerator.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$N$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$N$84</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="595">
   <si>
     <t>https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396</t>
   </si>
@@ -2317,6 +2317,12 @@
   </si>
   <si>
     <t>$thisUser</t>
+  </si>
+  <si>
+    <t>SUPPRESSPRIVACYSTATEMENTNOTICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies that SQL Server Setup should not display the privacy statement when ran from the command line. </t>
   </si>
 </sst>
 </file>
@@ -2393,7 +2399,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2414,6 +2420,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2727,11 +2736,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O87"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K56" sqref="K56"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2842,793 +2851,789 @@
         <v>$env:choco:sqlserver2016:ACTION=""</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <f t="shared" ref="C5:C68" si="0">SUBSTITUTE(B5,"/","")</f>
-        <v>IACCEPTSQLSERVERLICENSETERMS</v>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>593</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>594</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J68" si="1">"choco:sqlserver2016:"&amp;C5</f>
-        <v>choco:sqlserver2016:IACCEPTSQLSERVERLICENSETERMS</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
+        <f t="shared" ref="J5:J6" si="0">"choco:sqlserver2016:"&amp;C5</f>
+        <v>choco:sqlserver2016:SUPPRESSPRIVACYSTATEMENTNOTICE</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" ref="M5:M68" si="2">IF(L5,"if (!(Test-Path env:\"&amp;J5&amp;")){$env:"&amp;J5&amp;"="""&amp;G5&amp;"""}","")</f>
-        <v>if (!(Test-Path env:\choco:sqlserver2016:IACCEPTSQLSERVERLICENSETERMS)){$env:choco:sqlserver2016:IACCEPTSQLSERVERLICENSETERMS="TRUE"}</v>
+        <f t="shared" ref="M5:M6" si="1">IF(L5,"if (!(Test-Path env:\"&amp;J5&amp;")){$env:"&amp;J5&amp;"="""&amp;G5&amp;"""}","")</f>
+        <v>if (!(Test-Path env:\choco:sqlserver2016:SUPPRESSPRIVACYSTATEMENTNOTICE)){$env:choco:sqlserver2016:SUPPRESSPRIVACYSTATEMENTNOTICE="TRUE"}</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" ref="N5:N68" si="3">"if (Test-Path env:\"&amp;J5&amp;"){Add-Content $configFile """&amp;C5&amp;"=`""$env:"&amp;J5&amp;"`""""}"</f>
-        <v>if (Test-Path env:\choco:sqlserver2016:IACCEPTSQLSERVERLICENSETERMS){Add-Content $configFile "IACCEPTSQLSERVERLICENSETERMS=`"$env:choco:sqlserver2016:IACCEPTSQLSERVERLICENSETERMS`""}</v>
+        <f t="shared" ref="N5:N6" si="2">"if (Test-Path env:\"&amp;J5&amp;"){Add-Content $configFile """&amp;C5&amp;"=`""$env:"&amp;J5&amp;"`""""}"</f>
+        <v>if (Test-Path env:\choco:sqlserver2016:SUPPRESSPRIVACYSTATEMENTNOTICE){Add-Content $configFile "SUPPRESSPRIVACYSTATEMENTNOTICE=`"$env:choco:sqlserver2016:SUPPRESSPRIVACYSTATEMENTNOTICE`""}</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" ref="O5:O68" si="4">"$env:"&amp;J5&amp;"="""""</f>
-        <v>$env:choco:sqlserver2016:IACCEPTSQLSERVERLICENSETERMS=""</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O5:O6" si="3">"$env:"&amp;J5&amp;"="""""</f>
+        <v>$env:choco:sqlserver2016:SUPPRESSPRIVACYSTATEMENTNOTICE=""</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ENU</v>
+        <f t="shared" ref="C6:C69" si="4">SUBSTITUTE(B6,"/","")</f>
+        <v>IACCEPTSQLSERVERLICENSETERMS</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>choco:sqlserver2016:IACCEPTSQLSERVERLICENSETERMS</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="str">
         <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:ENU</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="M6" t="str">
+        <v>if (!(Test-Path env:\choco:sqlserver2016:IACCEPTSQLSERVERLICENSETERMS)){$env:choco:sqlserver2016:IACCEPTSQLSERVERLICENSETERMS="TRUE"}</v>
+      </c>
+      <c r="N6" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N6" t="str">
+        <v>if (Test-Path env:\choco:sqlserver2016:IACCEPTSQLSERVERLICENSETERMS){Add-Content $configFile "IACCEPTSQLSERVERLICENSETERMS=`"$env:choco:sqlserver2016:IACCEPTSQLSERVERLICENSETERMS`""}</v>
+      </c>
+      <c r="O6" t="str">
         <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:ENU){Add-Content $configFile "ENU=`"$env:choco:sqlserver2016:ENU`""}</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:ENU=""</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+        <v>$env:choco:sqlserver2016:IACCEPTSQLSERVERLICENSETERMS=""</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>UpdateEnabled</v>
+        <f t="shared" si="4"/>
+        <v>ENU</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:UpdateEnabled</v>
+        <f t="shared" ref="J6:J69" si="5">"choco:sqlserver2016:"&amp;C7</f>
+        <v>choco:sqlserver2016:ENU</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M6:M69" si="6">IF(L7,"if (!(Test-Path env:\"&amp;J7&amp;")){$env:"&amp;J7&amp;"="""&amp;G7&amp;"""}","")</f>
         <v/>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:UpdateEnabled){Add-Content $configFile "UpdateEnabled=`"$env:choco:sqlserver2016:UpdateEnabled`""}</v>
+        <f t="shared" ref="N6:N69" si="7">"if (Test-Path env:\"&amp;J7&amp;"){Add-Content $configFile """&amp;C7&amp;"=`""$env:"&amp;J7&amp;"`""""}"</f>
+        <v>if (Test-Path env:\choco:sqlserver2016:ENU){Add-Content $configFile "ENU=`"$env:choco:sqlserver2016:ENU`""}</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:UpdateEnabled=""</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O6:O69" si="8">"$env:"&amp;J7&amp;"="""""</f>
+        <v>$env:choco:sqlserver2016:ENU=""</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>UpdateSource</v>
+        <f t="shared" si="4"/>
+        <v>UpdateEnabled</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>579</v>
+        <v>16</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:UpdateSource</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:UpdateEnabled</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:UpdateSource){Add-Content $configFile "UpdateSource=`"$env:choco:sqlserver2016:UpdateSource`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:UpdateEnabled){Add-Content $configFile "UpdateEnabled=`"$env:choco:sqlserver2016:UpdateEnabled`""}</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:UpdateSource=""</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:UpdateEnabled=""</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>CONFIGURATIONFILE</v>
+        <f t="shared" si="4"/>
+        <v>UpdateSource</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>20</v>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>579</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:CONFIGURATIONFILE</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:UpdateSource</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:CONFIGURATIONFILE){Add-Content $configFile "CONFIGURATIONFILE=`"$env:choco:sqlserver2016:CONFIGURATIONFILE`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:UpdateSource){Add-Content $configFile "UpdateSource=`"$env:choco:sqlserver2016:UpdateSource`""}</v>
       </c>
       <c r="O9" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:CONFIGURATIONFILE=""</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:UpdateSource=""</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ERRORREPORTING</v>
+        <f t="shared" si="4"/>
+        <v>CONFIGURATIONFILE</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:ERRORREPORTING</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:CONFIGURATIONFILE</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:ERRORREPORTING){Add-Content $configFile "ERRORREPORTING=`"$env:choco:sqlserver2016:ERRORREPORTING`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:CONFIGURATIONFILE){Add-Content $configFile "CONFIGURATIONFILE=`"$env:choco:sqlserver2016:CONFIGURATIONFILE`""}</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:ERRORREPORTING=""</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:CONFIGURATIONFILE=""</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FEATURES</v>
+        <f t="shared" si="4"/>
+        <v>ERRORREPORTING</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>580</v>
-      </c>
       <c r="J11" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:FEATURES</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:ERRORREPORTING</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11" t="str">
-        <f t="shared" si="2"/>
-        <v>if (!(Test-Path env:\choco:sqlserver2016:FEATURES)){$env:choco:sqlserver2016:FEATURES="SQLENGINE"}</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:FEATURES){Add-Content $configFile "FEATURES=`"$env:choco:sqlserver2016:FEATURES`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:ERRORREPORTING){Add-Content $configFile "ERRORREPORTING=`"$env:choco:sqlserver2016:ERRORREPORTING`""}</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:FEATURES=""</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:ERRORREPORTING=""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>533</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HELP</v>
+        <f t="shared" si="4"/>
+        <v>FEATURES</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>532</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>580</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:HELP</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:FEATURES</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>if (!(Test-Path env:\choco:sqlserver2016:FEATURES)){$env:choco:sqlserver2016:FEATURES="SQLENGINE"}</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:HELP){Add-Content $configFile "HELP=`"$env:choco:sqlserver2016:HELP`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:FEATURES){Add-Content $configFile "FEATURES=`"$env:choco:sqlserver2016:FEATURES`""}</v>
       </c>
       <c r="O12" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:HELP=""</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:FEATURES=""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>533</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>INDICATEPROGRESS</v>
+        <f t="shared" si="4"/>
+        <v>HELP</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="b">
+        <v>34</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:HELP</v>
+      </c>
+      <c r="K13">
         <v>0</v>
       </c>
-      <c r="J13" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:INDICATEPROGRESS</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
       <c r="M13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:INDICATEPROGRESS){Add-Content $configFile "INDICATEPROGRESS=`"$env:choco:sqlserver2016:INDICATEPROGRESS`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:HELP){Add-Content $configFile "HELP=`"$env:choco:sqlserver2016:HELP`""}</v>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:INDICATEPROGRESS=""</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:HELP=""</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>INSTALLSHAREDDIR</v>
+        <f t="shared" si="4"/>
+        <v>INDICATEPROGRESS</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>534</v>
+        <v>36</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:INSTALLSHAREDDIR</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:INDICATEPROGRESS</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:INSTALLSHAREDDIR){Add-Content $configFile "INSTALLSHAREDDIR=`"$env:choco:sqlserver2016:INSTALLSHAREDDIR`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:INDICATEPROGRESS){Add-Content $configFile "INDICATEPROGRESS=`"$env:choco:sqlserver2016:INDICATEPROGRESS`""}</v>
       </c>
       <c r="O14" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:INSTALLSHAREDDIR=""</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:INDICATEPROGRESS=""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>INSTALLSHAREDWOWDIR</v>
+        <f t="shared" si="4"/>
+        <v>INSTALLSHAREDDIR</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:INSTALLSHAREDWOWDIR</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:INSTALLSHAREDDIR</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:INSTALLSHAREDWOWDIR){Add-Content $configFile "INSTALLSHAREDWOWDIR=`"$env:choco:sqlserver2016:INSTALLSHAREDWOWDIR`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:INSTALLSHAREDDIR){Add-Content $configFile "INSTALLSHAREDDIR=`"$env:choco:sqlserver2016:INSTALLSHAREDDIR`""}</v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:INSTALLSHAREDWOWDIR=""</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:INSTALLSHAREDDIR=""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>INSTANCEDIR</v>
+        <f t="shared" si="4"/>
+        <v>INSTALLSHAREDWOWDIR</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>46</v>
+        <v>536</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:INSTANCEDIR</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:INSTALLSHAREDWOWDIR</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:INSTANCEDIR){Add-Content $configFile "INSTANCEDIR=`"$env:choco:sqlserver2016:INSTANCEDIR`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:INSTALLSHAREDWOWDIR){Add-Content $configFile "INSTALLSHAREDWOWDIR=`"$env:choco:sqlserver2016:INSTALLSHAREDWOWDIR`""}</v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:INSTANCEDIR=""</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:INSTALLSHAREDWOWDIR=""</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>INSTANCEID</v>
+        <f t="shared" si="4"/>
+        <v>INSTANCEDIR</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" t="s">
-        <v>581</v>
+      <c r="F17" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:INSTANCEID</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:INSTANCEDIR</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:INSTANCEID){Add-Content $configFile "INSTANCEID=`"$env:choco:sqlserver2016:INSTANCEID`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:INSTANCEDIR){Add-Content $configFile "INSTANCEDIR=`"$env:choco:sqlserver2016:INSTANCEDIR`""}</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:INSTANCEID=""</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:INSTANCEDIR=""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>INSTANCENAME</v>
+        <f t="shared" si="4"/>
+        <v>INSTANCEID</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>588</v>
+        <v>13</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>581</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:INSTANCENAME</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:INSTANCEID</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="L18">
+      <c r="M18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:INSTANCEID){Add-Content $configFile "INSTANCEID=`"$env:choco:sqlserver2016:INSTANCEID`""}</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:INSTANCEID=""</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>INSTANCENAME</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="M18" t="str">
-        <f t="shared" si="2"/>
-        <v>if (!(Test-Path env:\choco:sqlserver2016:INSTANCENAME)){$env:choco:sqlserver2016:INSTANCENAME="MSSQLSERVER "}</v>
-      </c>
-      <c r="N18" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:INSTANCENAME){Add-Content $configFile "INSTANCENAME=`"$env:choco:sqlserver2016:INSTANCENAME`""}</v>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:INSTANCENAME=""</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PBENGSVCACCOUNT</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>588</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:PBENGSVCACCOUNT</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:INSTANCENAME</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
       <c r="M19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>if (!(Test-Path env:\choco:sqlserver2016:INSTANCENAME)){$env:choco:sqlserver2016:INSTANCENAME="MSSQLSERVER "}</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:PBENGSVCACCOUNT){Add-Content $configFile "PBENGSVCACCOUNT=`"$env:choco:sqlserver2016:PBENGSVCACCOUNT`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:INSTANCENAME){Add-Content $configFile "INSTANCENAME=`"$env:choco:sqlserver2016:INSTANCENAME`""}</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:PBENGSVCACCOUNT=""</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:INSTANCENAME=""</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PBDMSSVCPASSWORD</v>
+        <f t="shared" si="4"/>
+        <v>PBENGSVCACCOUNT</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:PBDMSSVCPASSWORD</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:PBENGSVCACCOUNT</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:PBDMSSVCPASSWORD){Add-Content $configFile "PBDMSSVCPASSWORD=`"$env:choco:sqlserver2016:PBDMSSVCPASSWORD`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:PBENGSVCACCOUNT){Add-Content $configFile "PBENGSVCACCOUNT=`"$env:choco:sqlserver2016:PBENGSVCACCOUNT`""}</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:PBDMSSVCPASSWORD=""</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:PBENGSVCACCOUNT=""</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PBENGSVCSTARTUPTYPE</v>
+        <f t="shared" si="4"/>
+        <v>PBDMSSVCPASSWORD</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:PBENGSVCSTARTUPTYPE</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:PBDMSSVCPASSWORD</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:PBENGSVCSTARTUPTYPE){Add-Content $configFile "PBENGSVCSTARTUPTYPE=`"$env:choco:sqlserver2016:PBENGSVCSTARTUPTYPE`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:PBDMSSVCPASSWORD){Add-Content $configFile "PBDMSSVCPASSWORD=`"$env:choco:sqlserver2016:PBDMSSVCPASSWORD`""}</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:PBENGSVCSTARTUPTYPE=""</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:PBDMSSVCPASSWORD=""</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PBPORTRANGE</v>
+        <f t="shared" si="4"/>
+        <v>PBENGSVCSTARTUPTYPE</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>537</v>
+        <v>58</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:PBPORTRANGE</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:PBENGSVCSTARTUPTYPE</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:PBPORTRANGE){Add-Content $configFile "PBPORTRANGE=`"$env:choco:sqlserver2016:PBPORTRANGE`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:PBENGSVCSTARTUPTYPE){Add-Content $configFile "PBENGSVCSTARTUPTYPE=`"$env:choco:sqlserver2016:PBENGSVCSTARTUPTYPE`""}</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:PBPORTRANGE=""</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:PBENGSVCSTARTUPTYPE=""</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PBSCALEOUT</v>
+        <f t="shared" si="4"/>
+        <v>PBPORTRANGE</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>63</v>
+        <v>537</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:PBSCALEOUT</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:PBPORTRANGE</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:PBSCALEOUT){Add-Content $configFile "PBSCALEOUT=`"$env:choco:sqlserver2016:PBSCALEOUT`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:PBPORTRANGE){Add-Content $configFile "PBPORTRANGE=`"$env:choco:sqlserver2016:PBPORTRANGE`""}</v>
       </c>
       <c r="O23" t="str">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:PBPORTRANGE=""</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:PBSCALEOUT=""</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PID</v>
+        <v>PBSCALEOUT</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="2"/>
+        <v>63</v>
+      </c>
       <c r="J24" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:PID</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:PBSCALEOUT</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
       <c r="M24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:PID){Add-Content $configFile "PID=`"$env:choco:sqlserver2016:PID`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:PBSCALEOUT){Add-Content $configFile "PBSCALEOUT=`"$env:choco:sqlserver2016:PBSCALEOUT`""}</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:PID=""</v>
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:PBSCALEOUT=""</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="195" customHeight="1" x14ac:dyDescent="0.25">
@@ -3636,230 +3641,231 @@
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Q</v>
+        <f t="shared" si="4"/>
+        <v>PID</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" t="b">
+        <v>65</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="J25" t="str">
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:PID</v>
+      </c>
+      <c r="K25">
         <v>1</v>
       </c>
-      <c r="J25" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:Q</v>
-      </c>
-      <c r="K25">
+      <c r="L25">
         <v>0</v>
       </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
       <c r="M25" t="str">
-        <f t="shared" si="2"/>
-        <v>if (!(Test-Path env:\choco:sqlserver2016:Q)){$env:choco:sqlserver2016:Q="TRUE"}</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:Q){Add-Content $configFile "Q=`"$env:choco:sqlserver2016:Q`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:PID){Add-Content $configFile "PID=`"$env:choco:sqlserver2016:PID`""}</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:Q=""</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:PID=""</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>QS</v>
+        <f t="shared" si="4"/>
+        <v>Q</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:QS</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:Q</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
       <c r="M26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>if (!(Test-Path env:\choco:sqlserver2016:Q)){$env:choco:sqlserver2016:Q="TRUE"}</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:QS){Add-Content $configFile "QS=`"$env:choco:sqlserver2016:QS`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:Q){Add-Content $configFile "Q=`"$env:choco:sqlserver2016:Q`""}</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:QS=""</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="150" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:Q=""</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>UIMODE</v>
+        <f t="shared" si="4"/>
+        <v>QS</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>538</v>
+        <v>69</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:UIMODE</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:QS</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:UIMODE){Add-Content $configFile "UIMODE=`"$env:choco:sqlserver2016:UIMODE`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:QS){Add-Content $configFile "QS=`"$env:choco:sqlserver2016:QS`""}</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:UIMODE=""</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:QS=""</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SQMREPORTING</v>
+        <f t="shared" si="4"/>
+        <v>UIMODE</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:SQMREPORTING</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:UIMODE</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:SQMREPORTING){Add-Content $configFile "SQMREPORTING=`"$env:choco:sqlserver2016:SQMREPORTING`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:UIMODE){Add-Content $configFile "UIMODE=`"$env:choco:sqlserver2016:UIMODE`""}</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:SQMREPORTING=""</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:UIMODE=""</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HIDECONSOLE</v>
+        <f t="shared" si="4"/>
+        <v>SQMREPORTING</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>80</v>
+        <v>542</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:HIDECONSOLE</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:SQMREPORTING</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:HIDECONSOLE){Add-Content $configFile "HIDECONSOLE=`"$env:choco:sqlserver2016:HIDECONSOLE`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:SQMREPORTING){Add-Content $configFile "SQMREPORTING=`"$env:choco:sqlserver2016:SQMREPORTING`""}</v>
       </c>
       <c r="O29" t="str">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:SQMREPORTING=""</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:HIDECONSOLE=""</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>AGTSVCACCOUNT</v>
+        <v>HIDECONSOLE</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" t="s">
-        <v>590</v>
+        <v>80</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:AGTSVCACCOUNT</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:HIDECONSOLE</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:AGTSVCACCOUNT){Add-Content $configFile "AGTSVCACCOUNT=`"$env:choco:sqlserver2016:AGTSVCACCOUNT`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:HIDECONSOLE){Add-Content $configFile "HIDECONSOLE=`"$env:choco:sqlserver2016:HIDECONSOLE`""}</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:AGTSVCACCOUNT=""</v>
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:HIDECONSOLE=""</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -3867,227 +3873,230 @@
         <v>81</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>AGTSVCPASSWORD</v>
+        <f t="shared" si="4"/>
+        <v>AGTSVCACCOUNT</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="G31" t="s">
+        <v>590</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:AGTSVCPASSWORD</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:AGTSVCACCOUNT</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:AGTSVCPASSWORD){Add-Content $configFile "AGTSVCPASSWORD=`"$env:choco:sqlserver2016:AGTSVCPASSWORD`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:AGTSVCACCOUNT){Add-Content $configFile "AGTSVCACCOUNT=`"$env:choco:sqlserver2016:AGTSVCACCOUNT`""}</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:AGTSVCPASSWORD=""</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:AGTSVCACCOUNT=""</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>AGTSVCSTARTUPTYPE</v>
+        <f t="shared" si="4"/>
+        <v>AGTSVCPASSWORD</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="G32" t="s">
-        <v>90</v>
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:AGTSVCSTARTUPTYPE</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:AGTSVCPASSWORD</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:AGTSVCSTARTUPTYPE){Add-Content $configFile "AGTSVCSTARTUPTYPE=`"$env:choco:sqlserver2016:AGTSVCSTARTUPTYPE`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:AGTSVCPASSWORD){Add-Content $configFile "AGTSVCPASSWORD=`"$env:choco:sqlserver2016:AGTSVCPASSWORD`""}</v>
       </c>
       <c r="O32" t="str">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:AGTSVCPASSWORD=""</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:AGTSVCSTARTUPTYPE=""</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ASBACKUPDIR</v>
+        <v>AGTSVCSTARTUPTYPE</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>544</v>
+      <c r="F33" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="G33" t="s">
+        <v>90</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:ASBACKUPDIR</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:AGTSVCSTARTUPTYPE</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:ASBACKUPDIR){Add-Content $configFile "ASBACKUPDIR=`"$env:choco:sqlserver2016:ASBACKUPDIR`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:AGTSVCSTARTUPTYPE){Add-Content $configFile "AGTSVCSTARTUPTYPE=`"$env:choco:sqlserver2016:AGTSVCSTARTUPTYPE`""}</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:ASBACKUPDIR=""</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:AGTSVCSTARTUPTYPE=""</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ASCOLLATION</v>
+        <f t="shared" si="4"/>
+        <v>ASBACKUPDIR</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:ASCOLLATION</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:ASBACKUPDIR</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:ASCOLLATION){Add-Content $configFile "ASCOLLATION=`"$env:choco:sqlserver2016:ASCOLLATION`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:ASBACKUPDIR){Add-Content $configFile "ASBACKUPDIR=`"$env:choco:sqlserver2016:ASBACKUPDIR`""}</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:ASCOLLATION=""</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="165" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:ASBACKUPDIR=""</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ASCONFIGDIR</v>
+        <f t="shared" si="4"/>
+        <v>ASCOLLATION</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:ASCONFIGDIR</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:ASCOLLATION</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:ASCONFIGDIR){Add-Content $configFile "ASCONFIGDIR=`"$env:choco:sqlserver2016:ASCONFIGDIR`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:ASCOLLATION){Add-Content $configFile "ASCOLLATION=`"$env:choco:sqlserver2016:ASCOLLATION`""}</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:ASCONFIGDIR=""</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:ASCOLLATION=""</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ASDATADIR</v>
+        <f t="shared" si="4"/>
+        <v>ASCONFIGDIR</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:ASDATADIR</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:ASCONFIGDIR</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:ASDATADIR){Add-Content $configFile "ASDATADIR=`"$env:choco:sqlserver2016:ASDATADIR`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:ASCONFIGDIR){Add-Content $configFile "ASCONFIGDIR=`"$env:choco:sqlserver2016:ASCONFIGDIR`""}</v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:ASDATADIR=""</v>
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:ASCONFIGDIR=""</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="120" x14ac:dyDescent="0.25">
@@ -4095,113 +4104,110 @@
         <v>91</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ASLOGDIR</v>
+        <f t="shared" si="4"/>
+        <v>ASDATADIR</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:ASLOGDIR</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:ASDATADIR</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:ASLOGDIR){Add-Content $configFile "ASLOGDIR=`"$env:choco:sqlserver2016:ASLOGDIR`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:ASDATADIR){Add-Content $configFile "ASDATADIR=`"$env:choco:sqlserver2016:ASDATADIR`""}</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:ASLOGDIR=""</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:ASDATADIR=""</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ASSERVERMODE</v>
+        <f t="shared" si="4"/>
+        <v>ASLOGDIR</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>112</v>
+      <c r="F38" s="2" t="s">
+        <v>548</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:ASSERVERMODE</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:ASLOGDIR</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:ASSERVERMODE){Add-Content $configFile "ASSERVERMODE=`"$env:choco:sqlserver2016:ASSERVERMODE`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:ASLOGDIR){Add-Content $configFile "ASLOGDIR=`"$env:choco:sqlserver2016:ASLOGDIR`""}</v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:ASSERVERMODE=""</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:ASLOGDIR=""</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ASSVCACCOUNT</v>
+        <f t="shared" si="4"/>
+        <v>ASSERVERMODE</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>114</v>
+        <v>13</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:ASSVCACCOUNT</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:ASSERVERMODE</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:ASSVCACCOUNT){Add-Content $configFile "ASSVCACCOUNT=`"$env:choco:sqlserver2016:ASSVCACCOUNT`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:ASSERVERMODE){Add-Content $configFile "ASSERVERMODE=`"$env:choco:sqlserver2016:ASSERVERMODE`""}</v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:ASSVCACCOUNT=""</v>
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:ASSERVERMODE=""</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4209,695 +4215,689 @@
         <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C40" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ASSVCPASSWORD</v>
+        <f t="shared" si="4"/>
+        <v>ASSVCACCOUNT</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
       </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
       <c r="F40" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:ASSVCPASSWORD</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:ASSVCACCOUNT</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:ASSVCPASSWORD){Add-Content $configFile "ASSVCPASSWORD=`"$env:choco:sqlserver2016:ASSVCPASSWORD`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:ASSVCACCOUNT){Add-Content $configFile "ASSVCACCOUNT=`"$env:choco:sqlserver2016:ASSVCACCOUNT`""}</v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:ASSVCPASSWORD=""</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:ASSVCACCOUNT=""</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ASSVCSTARTUPTYPE</v>
+        <f t="shared" si="4"/>
+        <v>ASSVCPASSWORD</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>549</v>
+        <v>6</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:ASSVCSTARTUPTYPE</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:ASSVCPASSWORD</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:ASSVCSTARTUPTYPE){Add-Content $configFile "ASSVCSTARTUPTYPE=`"$env:choco:sqlserver2016:ASSVCSTARTUPTYPE`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:ASSVCPASSWORD){Add-Content $configFile "ASSVCPASSWORD=`"$env:choco:sqlserver2016:ASSVCPASSWORD`""}</v>
       </c>
       <c r="O41" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:ASSVCSTARTUPTYPE=""</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:ASSVCPASSWORD=""</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ASSYSADMINACCOUNTS</v>
+        <f t="shared" si="4"/>
+        <v>ASSVCSTARTUPTYPE</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>120</v>
+        <v>13</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>549</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:ASSYSADMINACCOUNTS</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:ASSVCSTARTUPTYPE</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:ASSYSADMINACCOUNTS){Add-Content $configFile "ASSYSADMINACCOUNTS=`"$env:choco:sqlserver2016:ASSYSADMINACCOUNTS`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:ASSVCSTARTUPTYPE){Add-Content $configFile "ASSVCSTARTUPTYPE=`"$env:choco:sqlserver2016:ASSVCSTARTUPTYPE`""}</v>
       </c>
       <c r="O42" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:ASSYSADMINACCOUNTS=""</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:ASSVCSTARTUPTYPE=""</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ASTEMPDIR</v>
+        <f t="shared" si="4"/>
+        <v>ASSYSADMINACCOUNTS</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:ASTEMPDIR</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:ASSYSADMINACCOUNTS</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:ASTEMPDIR){Add-Content $configFile "ASTEMPDIR=`"$env:choco:sqlserver2016:ASTEMPDIR`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:ASSYSADMINACCOUNTS){Add-Content $configFile "ASSYSADMINACCOUNTS=`"$env:choco:sqlserver2016:ASSYSADMINACCOUNTS`""}</v>
       </c>
       <c r="O43" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:ASTEMPDIR=""</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:ASSYSADMINACCOUNTS=""</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ASPROVIDERMSOLAP</v>
+        <f t="shared" si="4"/>
+        <v>ASTEMPDIR</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:ASPROVIDERMSOLAP</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:ASTEMPDIR</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:ASPROVIDERMSOLAP){Add-Content $configFile "ASPROVIDERMSOLAP=`"$env:choco:sqlserver2016:ASPROVIDERMSOLAP`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:ASTEMPDIR){Add-Content $configFile "ASTEMPDIR=`"$env:choco:sqlserver2016:ASTEMPDIR`""}</v>
       </c>
       <c r="O44" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:ASPROVIDERMSOLAP=""</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:ASTEMPDIR=""</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FARMACCOUNT</v>
+        <f t="shared" si="4"/>
+        <v>ASPROVIDERMSOLAP</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:FARMACCOUNT</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:ASPROVIDERMSOLAP</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:FARMACCOUNT){Add-Content $configFile "FARMACCOUNT=`"$env:choco:sqlserver2016:FARMACCOUNT`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:ASPROVIDERMSOLAP){Add-Content $configFile "ASPROVIDERMSOLAP=`"$env:choco:sqlserver2016:ASPROVIDERMSOLAP`""}</v>
       </c>
       <c r="O45" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:FARMACCOUNT=""</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:ASPROVIDERMSOLAP=""</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FARMPASSWORD</v>
+        <f t="shared" si="4"/>
+        <v>FARMACCOUNT</v>
       </c>
       <c r="D46" t="s">
         <v>129</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>133</v>
+        <v>552</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:FARMPASSWORD</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:FARMACCOUNT</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:FARMPASSWORD){Add-Content $configFile "FARMPASSWORD=`"$env:choco:sqlserver2016:FARMPASSWORD`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:FARMACCOUNT){Add-Content $configFile "FARMACCOUNT=`"$env:choco:sqlserver2016:FARMACCOUNT`""}</v>
       </c>
       <c r="O46" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:FARMPASSWORD=""</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:FARMACCOUNT=""</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PASSPHRASE</v>
+        <f t="shared" si="4"/>
+        <v>FARMPASSWORD</v>
       </c>
       <c r="D47" t="s">
         <v>129</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>553</v>
+        <v>133</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:PASSPHRASE</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:FARMPASSWORD</v>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:PASSPHRASE){Add-Content $configFile "PASSPHRASE=`"$env:choco:sqlserver2016:PASSPHRASE`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:FARMPASSWORD){Add-Content $configFile "FARMPASSWORD=`"$env:choco:sqlserver2016:FARMPASSWORD`""}</v>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:PASSPHRASE=""</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:FARMPASSWORD=""</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>FARMADMINIPORT</v>
+        <f t="shared" si="4"/>
+        <v>PASSPHRASE</v>
       </c>
       <c r="D48" t="s">
         <v>129</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:FARMADMINIPORT</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:PASSPHRASE</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:FARMADMINIPORT){Add-Content $configFile "FARMADMINIPORT=`"$env:choco:sqlserver2016:FARMADMINIPORT`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:PASSPHRASE){Add-Content $configFile "PASSPHRASE=`"$env:choco:sqlserver2016:PASSPHRASE`""}</v>
       </c>
       <c r="O48" t="str">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:PASSPHRASE=""</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:FARMADMINIPORT=""</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>BROWSERSVCSTARTUPTYPE</v>
+        <v>FARMADMINIPORT</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="G49" t="s">
-        <v>88</v>
+        <v>129</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>554</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:BROWSERSVCSTARTUPTYPE</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:FARMADMINIPORT</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:BROWSERSVCSTARTUPTYPE){Add-Content $configFile "BROWSERSVCSTARTUPTYPE=`"$env:choco:sqlserver2016:BROWSERSVCSTARTUPTYPE`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:FARMADMINIPORT){Add-Content $configFile "FARMADMINIPORT=`"$env:choco:sqlserver2016:FARMADMINIPORT`""}</v>
       </c>
       <c r="O49" t="str">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:FARMADMINIPORT=""</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:BROWSERSVCSTARTUPTYPE=""</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ENABLERANU</v>
+        <v>BROWSERSVCSTARTUPTYPE</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>143</v>
+      <c r="F50" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="G50" t="s">
+        <v>88</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:ENABLERANU</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:BROWSERSVCSTARTUPTYPE</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:ENABLERANU){Add-Content $configFile "ENABLERANU=`"$env:choco:sqlserver2016:ENABLERANU`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:BROWSERSVCSTARTUPTYPE){Add-Content $configFile "BROWSERSVCSTARTUPTYPE=`"$env:choco:sqlserver2016:BROWSERSVCSTARTUPTYPE`""}</v>
       </c>
       <c r="O50" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:ENABLERANU=""</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:BROWSERSVCSTARTUPTYPE=""</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C51" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>INSTALLSQLDATADIR</v>
+        <f t="shared" si="4"/>
+        <v>ENABLERANU</v>
       </c>
       <c r="D51" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>560</v>
+        <v>143</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:INSTALLSQLDATADIR</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:ENABLERANU</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:INSTALLSQLDATADIR){Add-Content $configFile "INSTALLSQLDATADIR=`"$env:choco:sqlserver2016:INSTALLSQLDATADIR`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:ENABLERANU){Add-Content $configFile "ENABLERANU=`"$env:choco:sqlserver2016:ENABLERANU`""}</v>
       </c>
       <c r="O51" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:INSTALLSQLDATADIR=""</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:ENABLERANU=""</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C52" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SAPWD</v>
+        <f t="shared" si="4"/>
+        <v>INSTALLSQLDATADIR</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:SAPWD</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:INSTALLSQLDATADIR</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:SAPWD){Add-Content $configFile "SAPWD=`"$env:choco:sqlserver2016:SAPWD`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:INSTALLSQLDATADIR){Add-Content $configFile "INSTALLSQLDATADIR=`"$env:choco:sqlserver2016:INSTALLSQLDATADIR`""}</v>
       </c>
       <c r="O52" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:SAPWD=""</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:INSTALLSQLDATADIR=""</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C53" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SECURITYMODE</v>
+        <f t="shared" si="4"/>
+        <v>SAPWD</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>561</v>
+        <v>150</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>582</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:SECURITYMODE</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:SAPWD</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:SECURITYMODE){Add-Content $configFile "SECURITYMODE=`"$env:choco:sqlserver2016:SECURITYMODE`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:SAPWD){Add-Content $configFile "SAPWD=`"$env:choco:sqlserver2016:SAPWD`""}</v>
       </c>
       <c r="O53" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:SECURITYMODE=""</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:SAPWD=""</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C54" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SQLBACKUPDIR</v>
+        <f t="shared" si="4"/>
+        <v>SECURITYMODE</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:SQLBACKUPDIR</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:SECURITYMODE</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:SQLBACKUPDIR){Add-Content $configFile "SQLBACKUPDIR=`"$env:choco:sqlserver2016:SQLBACKUPDIR`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:SECURITYMODE){Add-Content $configFile "SECURITYMODE=`"$env:choco:sqlserver2016:SECURITYMODE`""}</v>
       </c>
       <c r="O54" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:SQLBACKUPDIR=""</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:SECURITYMODE=""</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C55" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SQLCOLLATION</v>
+        <f t="shared" si="4"/>
+        <v>SQLBACKUPDIR</v>
       </c>
       <c r="D55" t="s">
         <v>13</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:SQLCOLLATION</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:SQLBACKUPDIR</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="M55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:SQLCOLLATION){Add-Content $configFile "SQLCOLLATION=`"$env:choco:sqlserver2016:SQLCOLLATION`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:SQLBACKUPDIR){Add-Content $configFile "SQLBACKUPDIR=`"$env:choco:sqlserver2016:SQLBACKUPDIR`""}</v>
       </c>
       <c r="O55" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:SQLCOLLATION=""</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="240" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:SQLBACKUPDIR=""</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C56" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ADDCURRENTUSERASSQLADMIN</v>
+        <f t="shared" si="4"/>
+        <v>SQLCOLLATION</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:ADDCURRENTUSERASSQLADMIN</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:SQLCOLLATION</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:ADDCURRENTUSERASSQLADMIN){Add-Content $configFile "ADDCURRENTUSERASSQLADMIN=`"$env:choco:sqlserver2016:ADDCURRENTUSERASSQLADMIN`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:SQLCOLLATION){Add-Content $configFile "SQLCOLLATION=`"$env:choco:sqlserver2016:SQLCOLLATION`""}</v>
       </c>
       <c r="O56" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:ADDCURRENTUSERASSQLADMIN=""</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:SQLCOLLATION=""</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="240" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C57" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SQLSVCACCOUNT</v>
+        <f t="shared" si="4"/>
+        <v>ADDCURRENTUSERASSQLADMIN</v>
       </c>
       <c r="D57" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G57" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:SQLSVCACCOUNT</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:ADDCURRENTUSERASSQLADMIN</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
       <c r="M57" t="str">
-        <f t="shared" si="2"/>
-        <v>if (!(Test-Path env:\choco:sqlserver2016:SQLSVCACCOUNT)){$env:choco:sqlserver2016:SQLSVCACCOUNT="NT Service\MSSQLSERVER"}</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:SQLSVCACCOUNT){Add-Content $configFile "SQLSVCACCOUNT=`"$env:choco:sqlserver2016:SQLSVCACCOUNT`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:ADDCURRENTUSERASSQLADMIN){Add-Content $configFile "ADDCURRENTUSERASSQLADMIN=`"$env:choco:sqlserver2016:ADDCURRENTUSERASSQLADMIN`""}</v>
       </c>
       <c r="O57" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:SQLSVCACCOUNT=""</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:ADDCURRENTUSERASSQLADMIN=""</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C58" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SQLSVCPASSWORD</v>
+        <f t="shared" si="4"/>
+        <v>SQLSVCACCOUNT</v>
       </c>
       <c r="D58" t="s">
         <v>6</v>
@@ -4906,781 +4906,790 @@
         <v>1</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
+      </c>
+      <c r="G58" t="s">
+        <v>589</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:SQLSVCPASSWORD</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:SQLSVCACCOUNT</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
       <c r="M58" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>if (!(Test-Path env:\choco:sqlserver2016:SQLSVCACCOUNT)){$env:choco:sqlserver2016:SQLSVCACCOUNT="NT Service\MSSQLSERVER"}</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:SQLSVCPASSWORD){Add-Content $configFile "SQLSVCPASSWORD=`"$env:choco:sqlserver2016:SQLSVCPASSWORD`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:SQLSVCACCOUNT){Add-Content $configFile "SQLSVCACCOUNT=`"$env:choco:sqlserver2016:SQLSVCACCOUNT`""}</v>
       </c>
       <c r="O58" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:SQLSVCPASSWORD=""</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:SQLSVCACCOUNT=""</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C59" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SQLSVCSTARTUPTYPE</v>
+        <f t="shared" si="4"/>
+        <v>SQLSVCPASSWORD</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="G59" t="s">
-        <v>88</v>
+        <v>6</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:SQLSVCSTARTUPTYPE</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:SQLSVCPASSWORD</v>
       </c>
       <c r="K59">
         <v>1</v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:SQLSVCSTARTUPTYPE){Add-Content $configFile "SQLSVCSTARTUPTYPE=`"$env:choco:sqlserver2016:SQLSVCSTARTUPTYPE`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:SQLSVCPASSWORD){Add-Content $configFile "SQLSVCPASSWORD=`"$env:choco:sqlserver2016:SQLSVCPASSWORD`""}</v>
       </c>
       <c r="O59" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:SQLSVCSTARTUPTYPE=""</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="150" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:SQLSVCPASSWORD=""</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C60" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SQLSYSADMINACCOUNTS</v>
+        <f t="shared" si="4"/>
+        <v>SQLSVCSTARTUPTYPE</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>592</v>
+        <v>13</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="G60" t="s">
+        <v>88</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:SQLSYSADMINACCOUNTS</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:SQLSVCSTARTUPTYPE</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
       <c r="M60" t="str">
-        <f t="shared" si="2"/>
-        <v>if (!(Test-Path env:\choco:sqlserver2016:SQLSYSADMINACCOUNTS)){$env:choco:sqlserver2016:SQLSYSADMINACCOUNTS="$thisUser"}</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:SQLSYSADMINACCOUNTS){Add-Content $configFile "SQLSYSADMINACCOUNTS=`"$env:choco:sqlserver2016:SQLSYSADMINACCOUNTS`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:SQLSVCSTARTUPTYPE){Add-Content $configFile "SQLSVCSTARTUPTYPE=`"$env:choco:sqlserver2016:SQLSVCSTARTUPTYPE`""}</v>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:SQLSYSADMINACCOUNTS=""</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="195" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:SQLSVCSTARTUPTYPE=""</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C61" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SQLTEMPDBDIR</v>
+        <f t="shared" si="4"/>
+        <v>SQLSYSADMINACCOUNTS</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>592</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:SQLTEMPDBDIR</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:SQLSYSADMINACCOUNTS</v>
       </c>
       <c r="K61">
         <v>1</v>
       </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
       <c r="M61" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>if (!(Test-Path env:\choco:sqlserver2016:SQLSYSADMINACCOUNTS)){$env:choco:sqlserver2016:SQLSYSADMINACCOUNTS="$thisUser"}</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:SQLTEMPDBDIR){Add-Content $configFile "SQLTEMPDBDIR=`"$env:choco:sqlserver2016:SQLTEMPDBDIR`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:SQLSYSADMINACCOUNTS){Add-Content $configFile "SQLSYSADMINACCOUNTS=`"$env:choco:sqlserver2016:SQLSYSADMINACCOUNTS`""}</v>
       </c>
       <c r="O61" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:SQLTEMPDBDIR=""</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:SQLSYSADMINACCOUNTS=""</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C62" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SQLTEMPDBLOGDIR</v>
+        <f t="shared" si="4"/>
+        <v>SQLTEMPDBDIR</v>
       </c>
       <c r="D62" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:SQLTEMPDBLOGDIR</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:SQLTEMPDBDIR</v>
       </c>
       <c r="K62">
         <v>1</v>
       </c>
       <c r="M62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:SQLTEMPDBLOGDIR){Add-Content $configFile "SQLTEMPDBLOGDIR=`"$env:choco:sqlserver2016:SQLTEMPDBLOGDIR`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:SQLTEMPDBDIR){Add-Content $configFile "SQLTEMPDBDIR=`"$env:choco:sqlserver2016:SQLTEMPDBDIR`""}</v>
       </c>
       <c r="O62" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:SQLTEMPDBLOGDIR=""</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="375" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:SQLTEMPDBDIR=""</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C63" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SQLTEMPDBFILECOUNT</v>
+        <f t="shared" si="4"/>
+        <v>SQLTEMPDBLOGDIR</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:SQLTEMPDBFILECOUNT</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:SQLTEMPDBLOGDIR</v>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:SQLTEMPDBFILECOUNT){Add-Content $configFile "SQLTEMPDBFILECOUNT=`"$env:choco:sqlserver2016:SQLTEMPDBFILECOUNT`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:SQLTEMPDBLOGDIR){Add-Content $configFile "SQLTEMPDBLOGDIR=`"$env:choco:sqlserver2016:SQLTEMPDBLOGDIR`""}</v>
       </c>
       <c r="O63" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:SQLTEMPDBFILECOUNT=""</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="165" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:SQLTEMPDBLOGDIR=""</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="375" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C64" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SQLTEMPDBFILESIZE</v>
+        <f t="shared" si="4"/>
+        <v>SQLTEMPDBFILECOUNT</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:SQLTEMPDBFILESIZE</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:SQLTEMPDBFILECOUNT</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:SQLTEMPDBFILESIZE){Add-Content $configFile "SQLTEMPDBFILESIZE=`"$env:choco:sqlserver2016:SQLTEMPDBFILESIZE`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:SQLTEMPDBFILECOUNT){Add-Content $configFile "SQLTEMPDBFILECOUNT=`"$env:choco:sqlserver2016:SQLTEMPDBFILECOUNT`""}</v>
       </c>
       <c r="O64" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:SQLTEMPDBFILESIZE=""</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:SQLTEMPDBFILECOUNT=""</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="165" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C65" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SQLTEMPDBFILEGROWTH</v>
+        <f t="shared" si="4"/>
+        <v>SQLTEMPDBFILESIZE</v>
       </c>
       <c r="D65" t="s">
         <v>13</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>194</v>
+        <v>570</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:SQLTEMPDBFILEGROWTH</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:SQLTEMPDBFILESIZE</v>
       </c>
       <c r="K65">
         <v>1</v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:SQLTEMPDBFILEGROWTH){Add-Content $configFile "SQLTEMPDBFILEGROWTH=`"$env:choco:sqlserver2016:SQLTEMPDBFILEGROWTH`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:SQLTEMPDBFILESIZE){Add-Content $configFile "SQLTEMPDBFILESIZE=`"$env:choco:sqlserver2016:SQLTEMPDBFILESIZE`""}</v>
       </c>
       <c r="O65" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:SQLTEMPDBFILEGROWTH=""</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="150" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:SQLTEMPDBFILESIZE=""</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C66" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SQLTEMPDBLOGFILESIZE</v>
+        <f t="shared" si="4"/>
+        <v>SQLTEMPDBFILEGROWTH</v>
       </c>
       <c r="D66" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>571</v>
+        <v>194</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:SQLTEMPDBLOGFILESIZE</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:SQLTEMPDBFILEGROWTH</v>
       </c>
       <c r="K66">
         <v>1</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:SQLTEMPDBLOGFILESIZE){Add-Content $configFile "SQLTEMPDBLOGFILESIZE=`"$env:choco:sqlserver2016:SQLTEMPDBLOGFILESIZE`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:SQLTEMPDBFILEGROWTH){Add-Content $configFile "SQLTEMPDBFILEGROWTH=`"$env:choco:sqlserver2016:SQLTEMPDBFILEGROWTH`""}</v>
       </c>
       <c r="O66" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:SQLTEMPDBLOGFILESIZE=""</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:SQLTEMPDBFILEGROWTH=""</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C67" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SQLTEMPDBLOGFILEGROWTH</v>
+        <f t="shared" si="4"/>
+        <v>SQLTEMPDBLOGFILESIZE</v>
       </c>
       <c r="D67" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:SQLTEMPDBLOGFILEGROWTH</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:SQLTEMPDBLOGFILESIZE</v>
       </c>
       <c r="K67">
         <v>1</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:SQLTEMPDBLOGFILEGROWTH){Add-Content $configFile "SQLTEMPDBLOGFILEGROWTH=`"$env:choco:sqlserver2016:SQLTEMPDBLOGFILEGROWTH`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:SQLTEMPDBLOGFILESIZE){Add-Content $configFile "SQLTEMPDBLOGFILESIZE=`"$env:choco:sqlserver2016:SQLTEMPDBLOGFILESIZE`""}</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:SQLTEMPDBLOGFILEGROWTH=""</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:SQLTEMPDBLOGFILESIZE=""</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C68" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SQLUSERDBDIR</v>
+        <f t="shared" si="4"/>
+        <v>SQLTEMPDBLOGFILEGROWTH</v>
       </c>
       <c r="D68" t="s">
         <v>13</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2016:SQLUSERDBDIR</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:SQLTEMPDBLOGFILEGROWTH</v>
       </c>
       <c r="K68">
         <v>1</v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:SQLUSERDBDIR){Add-Content $configFile "SQLUSERDBDIR=`"$env:choco:sqlserver2016:SQLUSERDBDIR`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:SQLTEMPDBLOGFILEGROWTH){Add-Content $configFile "SQLTEMPDBLOGFILEGROWTH=`"$env:choco:sqlserver2016:SQLTEMPDBLOGFILEGROWTH`""}</v>
       </c>
       <c r="O68" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2016:SQLUSERDBDIR=""</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:SQLTEMPDBLOGFILEGROWTH=""</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C69" s="2" t="str">
-        <f t="shared" ref="C69:C83" si="5">SUBSTITUTE(B69,"/","")</f>
-        <v>SQLSVCINSTANTFILEINIT</v>
+        <f t="shared" si="4"/>
+        <v>SQLUSERDBDIR</v>
       </c>
       <c r="D69" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>559</v>
+      <c r="F69" s="2" t="s">
+        <v>573</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" ref="J69:J83" si="6">"choco:sqlserver2016:"&amp;C69</f>
-        <v>choco:sqlserver2016:SQLSVCINSTANTFILEINIT</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2016:SQLUSERDBDIR</v>
       </c>
       <c r="K69">
         <v>1</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" ref="M69:M83" si="7">IF(L69,"if (!(Test-Path env:\"&amp;J69&amp;")){$env:"&amp;J69&amp;"="""&amp;G69&amp;"""}","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N69" t="str">
-        <f t="shared" ref="N69:N83" si="8">"if (Test-Path env:\"&amp;J69&amp;"){Add-Content $configFile """&amp;C69&amp;"=`""$env:"&amp;J69&amp;"`""""}"</f>
-        <v>if (Test-Path env:\choco:sqlserver2016:SQLSVCINSTANTFILEINIT){Add-Content $configFile "SQLSVCINSTANTFILEINIT=`"$env:choco:sqlserver2016:SQLSVCINSTANTFILEINIT`""}</v>
+        <f t="shared" si="7"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:SQLUSERDBDIR){Add-Content $configFile "SQLUSERDBDIR=`"$env:choco:sqlserver2016:SQLUSERDBDIR`""}</v>
       </c>
       <c r="O69" t="str">
-        <f t="shared" ref="O69:O83" si="9">"$env:"&amp;J69&amp;"="""""</f>
-        <v>$env:choco:sqlserver2016:SQLSVCINSTANTFILEINIT=""</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>$env:choco:sqlserver2016:SQLUSERDBDIR=""</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C70" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>SQLUSERDBLOGDIR</v>
+        <f t="shared" ref="C70:C84" si="9">SUBSTITUTE(B70,"/","")</f>
+        <v>SQLSVCINSTANTFILEINIT</v>
       </c>
       <c r="D70" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>558</v>
+      <c r="F70" s="4" t="s">
+        <v>559</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="6"/>
-        <v>choco:sqlserver2016:SQLUSERDBLOGDIR</v>
+        <f t="shared" ref="J70:J84" si="10">"choco:sqlserver2016:"&amp;C70</f>
+        <v>choco:sqlserver2016:SQLSVCINSTANTFILEINIT</v>
       </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="M70:M84" si="11">IF(L70,"if (!(Test-Path env:\"&amp;J70&amp;")){$env:"&amp;J70&amp;"="""&amp;G70&amp;"""}","")</f>
         <v/>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="8"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:SQLUSERDBLOGDIR){Add-Content $configFile "SQLUSERDBLOGDIR=`"$env:choco:sqlserver2016:SQLUSERDBLOGDIR`""}</v>
+        <f t="shared" ref="N70:N84" si="12">"if (Test-Path env:\"&amp;J70&amp;"){Add-Content $configFile """&amp;C70&amp;"=`""$env:"&amp;J70&amp;"`""""}"</f>
+        <v>if (Test-Path env:\choco:sqlserver2016:SQLSVCINSTANTFILEINIT){Add-Content $configFile "SQLSVCINSTANTFILEINIT=`"$env:choco:sqlserver2016:SQLSVCINSTANTFILEINIT`""}</v>
       </c>
       <c r="O70" t="str">
+        <f t="shared" ref="O70:O84" si="13">"$env:"&amp;J70&amp;"="""""</f>
+        <v>$env:choco:sqlserver2016:SQLSVCINSTANTFILEINIT=""</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>$env:choco:sqlserver2016:SQLUSERDBLOGDIR=""</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="210" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C71" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>FILESTREAMLEVEL</v>
+        <v>SQLUSERDBLOGDIR</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="6"/>
-        <v>choco:sqlserver2016:FILESTREAMLEVEL</v>
+        <f t="shared" si="10"/>
+        <v>choco:sqlserver2016:SQLUSERDBLOGDIR</v>
       </c>
       <c r="K71">
         <v>1</v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="8"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:FILESTREAMLEVEL){Add-Content $configFile "FILESTREAMLEVEL=`"$env:choco:sqlserver2016:FILESTREAMLEVEL`""}</v>
+        <f t="shared" si="12"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:SQLUSERDBLOGDIR){Add-Content $configFile "SQLUSERDBLOGDIR=`"$env:choco:sqlserver2016:SQLUSERDBLOGDIR`""}</v>
       </c>
       <c r="O71" t="str">
-        <f t="shared" si="9"/>
-        <v>$env:choco:sqlserver2016:FILESTREAMLEVEL=""</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>$env:choco:sqlserver2016:SQLUSERDBLOGDIR=""</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="210" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C72" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>FILESTREAMSHARENAME</v>
+        <f t="shared" si="9"/>
+        <v>FILESTREAMLEVEL</v>
       </c>
       <c r="D72" t="s">
-        <v>218</v>
+        <v>13</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>219</v>
+        <v>557</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="6"/>
-        <v>choco:sqlserver2016:FILESTREAMSHARENAME</v>
+        <f t="shared" si="10"/>
+        <v>choco:sqlserver2016:FILESTREAMLEVEL</v>
       </c>
       <c r="K72">
         <v>1</v>
       </c>
       <c r="M72" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="8"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:FILESTREAMSHARENAME){Add-Content $configFile "FILESTREAMSHARENAME=`"$env:choco:sqlserver2016:FILESTREAMSHARENAME`""}</v>
+        <f t="shared" si="12"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:FILESTREAMLEVEL){Add-Content $configFile "FILESTREAMLEVEL=`"$env:choco:sqlserver2016:FILESTREAMLEVEL`""}</v>
       </c>
       <c r="O72" t="str">
+        <f t="shared" si="13"/>
+        <v>$env:choco:sqlserver2016:FILESTREAMLEVEL=""</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>$env:choco:sqlserver2016:FILESTREAMSHARENAME=""</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="165" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C73" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>FTSVCACCOUNT</v>
+        <v>FILESTREAMSHARENAME</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>556</v>
+        <v>219</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="6"/>
-        <v>choco:sqlserver2016:FTSVCACCOUNT</v>
+        <f t="shared" si="10"/>
+        <v>choco:sqlserver2016:FILESTREAMSHARENAME</v>
       </c>
       <c r="K73">
         <v>1</v>
       </c>
       <c r="M73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="8"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:FTSVCACCOUNT){Add-Content $configFile "FTSVCACCOUNT=`"$env:choco:sqlserver2016:FTSVCACCOUNT`""}</v>
+        <f t="shared" si="12"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:FILESTREAMSHARENAME){Add-Content $configFile "FILESTREAMSHARENAME=`"$env:choco:sqlserver2016:FILESTREAMSHARENAME`""}</v>
       </c>
       <c r="O73" t="str">
-        <f t="shared" si="9"/>
-        <v>$env:choco:sqlserver2016:FTSVCACCOUNT=""</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>$env:choco:sqlserver2016:FILESTREAMSHARENAME=""</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="165" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C74" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>FTSVCPASSWORD</v>
+        <f t="shared" si="9"/>
+        <v>FTSVCACCOUNT</v>
       </c>
       <c r="D74" t="s">
         <v>13</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>226</v>
+        <v>556</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="6"/>
-        <v>choco:sqlserver2016:FTSVCPASSWORD</v>
+        <f t="shared" si="10"/>
+        <v>choco:sqlserver2016:FTSVCACCOUNT</v>
       </c>
       <c r="K74">
         <v>1</v>
       </c>
       <c r="M74" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="8"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:FTSVCPASSWORD){Add-Content $configFile "FTSVCPASSWORD=`"$env:choco:sqlserver2016:FTSVCPASSWORD`""}</v>
+        <f t="shared" si="12"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:FTSVCACCOUNT){Add-Content $configFile "FTSVCACCOUNT=`"$env:choco:sqlserver2016:FTSVCACCOUNT`""}</v>
       </c>
       <c r="O74" t="str">
+        <f t="shared" si="13"/>
+        <v>$env:choco:sqlserver2016:FTSVCACCOUNT=""</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C75" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>$env:choco:sqlserver2016:FTSVCPASSWORD=""</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C75" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>ISSVCACCOUNT</v>
+        <v>FTSVCPASSWORD</v>
       </c>
       <c r="D75" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="6"/>
-        <v>choco:sqlserver2016:ISSVCACCOUNT</v>
+        <f t="shared" si="10"/>
+        <v>choco:sqlserver2016:FTSVCPASSWORD</v>
       </c>
       <c r="K75">
         <v>1</v>
       </c>
       <c r="M75" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N75" t="str">
-        <f t="shared" si="8"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:ISSVCACCOUNT){Add-Content $configFile "ISSVCACCOUNT=`"$env:choco:sqlserver2016:ISSVCACCOUNT`""}</v>
+        <f t="shared" si="12"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:FTSVCPASSWORD){Add-Content $configFile "FTSVCPASSWORD=`"$env:choco:sqlserver2016:FTSVCPASSWORD`""}</v>
       </c>
       <c r="O75" t="str">
-        <f t="shared" si="9"/>
-        <v>$env:choco:sqlserver2016:ISSVCACCOUNT=""</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>$env:choco:sqlserver2016:FTSVCPASSWORD=""</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C76" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>ISSVCPASSWORD</v>
+        <f t="shared" si="9"/>
+        <v>ISSVCACCOUNT</v>
       </c>
       <c r="D76" t="s">
         <v>6</v>
       </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
       <c r="F76" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="6"/>
-        <v>choco:sqlserver2016:ISSVCPASSWORD</v>
+        <f t="shared" si="10"/>
+        <v>choco:sqlserver2016:ISSVCACCOUNT</v>
       </c>
       <c r="K76">
         <v>1</v>
       </c>
       <c r="M76" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N76" t="str">
-        <f t="shared" si="8"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:ISSVCPASSWORD){Add-Content $configFile "ISSVCPASSWORD=`"$env:choco:sqlserver2016:ISSVCPASSWORD`""}</v>
+        <f t="shared" si="12"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:ISSVCACCOUNT){Add-Content $configFile "ISSVCACCOUNT=`"$env:choco:sqlserver2016:ISSVCACCOUNT`""}</v>
       </c>
       <c r="O76" t="str">
-        <f t="shared" si="9"/>
-        <v>$env:choco:sqlserver2016:ISSVCPASSWORD=""</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>$env:choco:sqlserver2016:ISSVCACCOUNT=""</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C77" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>ISSVCStartupType</v>
+        <f t="shared" si="9"/>
+        <v>ISSVCPASSWORD</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>235</v>
+        <v>6</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="J77" t="str">
-        <f t="shared" si="6"/>
-        <v>choco:sqlserver2016:ISSVCStartupType</v>
+        <f t="shared" si="10"/>
+        <v>choco:sqlserver2016:ISSVCPASSWORD</v>
       </c>
       <c r="K77">
         <v>1</v>
       </c>
       <c r="M77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N77" t="str">
-        <f t="shared" si="8"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:ISSVCStartupType){Add-Content $configFile "ISSVCStartupType=`"$env:choco:sqlserver2016:ISSVCStartupType`""}</v>
+        <f t="shared" si="12"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:ISSVCPASSWORD){Add-Content $configFile "ISSVCPASSWORD=`"$env:choco:sqlserver2016:ISSVCPASSWORD`""}</v>
       </c>
       <c r="O77" t="str">
+        <f t="shared" si="13"/>
+        <v>$env:choco:sqlserver2016:ISSVCPASSWORD=""</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C78" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>$env:choco:sqlserver2016:ISSVCStartupType=""</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C78" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>NPENABLED</v>
+        <v>ISSVCStartupType</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>541</v>
+      <c r="F78" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" si="6"/>
-        <v>choco:sqlserver2016:NPENABLED</v>
+        <f t="shared" si="10"/>
+        <v>choco:sqlserver2016:ISSVCStartupType</v>
       </c>
       <c r="K78">
         <v>1</v>
       </c>
       <c r="M78" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N78" t="str">
-        <f t="shared" si="8"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:NPENABLED){Add-Content $configFile "NPENABLED=`"$env:choco:sqlserver2016:NPENABLED`""}</v>
+        <f t="shared" si="12"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:ISSVCStartupType){Add-Content $configFile "ISSVCStartupType=`"$env:choco:sqlserver2016:ISSVCStartupType`""}</v>
       </c>
       <c r="O78" t="str">
-        <f t="shared" si="9"/>
-        <v>$env:choco:sqlserver2016:NPENABLED=""</v>
+        <f t="shared" si="13"/>
+        <v>$env:choco:sqlserver2016:ISSVCStartupType=""</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="75" x14ac:dyDescent="0.25">
@@ -5688,125 +5697,122 @@
         <v>236</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C79" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>TCPENABLED</v>
+        <f t="shared" si="9"/>
+        <v>NPENABLED</v>
       </c>
       <c r="D79" t="s">
         <v>13</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="6"/>
-        <v>choco:sqlserver2016:TCPENABLED</v>
+        <f t="shared" si="10"/>
+        <v>choco:sqlserver2016:NPENABLED</v>
       </c>
       <c r="K79">
         <v>1</v>
       </c>
       <c r="M79" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N79" t="str">
-        <f t="shared" si="8"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:TCPENABLED){Add-Content $configFile "TCPENABLED=`"$env:choco:sqlserver2016:TCPENABLED`""}</v>
+        <f t="shared" si="12"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:NPENABLED){Add-Content $configFile "NPENABLED=`"$env:choco:sqlserver2016:NPENABLED`""}</v>
       </c>
       <c r="O79" t="str">
+        <f t="shared" si="13"/>
+        <v>$env:choco:sqlserver2016:NPENABLED=""</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C80" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>$env:choco:sqlserver2016:TCPENABLED=""</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C80" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>RSINSTALLMODE</v>
+        <v>TCPENABLED</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="6"/>
-        <v>choco:sqlserver2016:RSINSTALLMODE</v>
+        <f t="shared" si="10"/>
+        <v>choco:sqlserver2016:TCPENABLED</v>
       </c>
       <c r="K80">
         <v>1</v>
       </c>
       <c r="M80" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N80" t="str">
-        <f t="shared" si="8"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:RSINSTALLMODE){Add-Content $configFile "RSINSTALLMODE=`"$env:choco:sqlserver2016:RSINSTALLMODE`""}</v>
+        <f t="shared" si="12"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:TCPENABLED){Add-Content $configFile "TCPENABLED=`"$env:choco:sqlserver2016:TCPENABLED`""}</v>
       </c>
       <c r="O80" t="str">
-        <f t="shared" si="9"/>
-        <v>$env:choco:sqlserver2016:RSINSTALLMODE=""</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>$env:choco:sqlserver2016:TCPENABLED=""</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C81" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>RSSVCACCOUNT</v>
+        <f t="shared" si="9"/>
+        <v>RSINSTALLMODE</v>
       </c>
       <c r="D81" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>255</v>
+        <v>539</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="6"/>
-        <v>choco:sqlserver2016:RSSVCACCOUNT</v>
+        <f t="shared" si="10"/>
+        <v>choco:sqlserver2016:RSINSTALLMODE</v>
       </c>
       <c r="K81">
         <v>1</v>
       </c>
       <c r="M81" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N81" t="str">
-        <f t="shared" si="8"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:RSSVCACCOUNT){Add-Content $configFile "RSSVCACCOUNT=`"$env:choco:sqlserver2016:RSSVCACCOUNT`""}</v>
+        <f t="shared" si="12"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:RSINSTALLMODE){Add-Content $configFile "RSINSTALLMODE=`"$env:choco:sqlserver2016:RSINSTALLMODE`""}</v>
       </c>
       <c r="O81" t="str">
-        <f t="shared" si="9"/>
-        <v>$env:choco:sqlserver2016:RSSVCACCOUNT=""</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>$env:choco:sqlserver2016:RSINSTALLMODE=""</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C82" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>RSSVCPASSWORD</v>
+        <f t="shared" si="9"/>
+        <v>RSSVCACCOUNT</v>
       </c>
       <c r="D82" t="s">
         <v>6</v>
@@ -5815,107 +5821,147 @@
         <v>1</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J82" t="str">
-        <f t="shared" si="6"/>
-        <v>choco:sqlserver2016:RSSVCPASSWORD</v>
+        <f t="shared" si="10"/>
+        <v>choco:sqlserver2016:RSSVCACCOUNT</v>
       </c>
       <c r="K82">
         <v>1</v>
       </c>
       <c r="M82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N82" t="str">
-        <f t="shared" si="8"/>
-        <v>if (Test-Path env:\choco:sqlserver2016:RSSVCPASSWORD){Add-Content $configFile "RSSVCPASSWORD=`"$env:choco:sqlserver2016:RSSVCPASSWORD`""}</v>
+        <f t="shared" si="12"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:RSSVCACCOUNT){Add-Content $configFile "RSSVCACCOUNT=`"$env:choco:sqlserver2016:RSSVCACCOUNT`""}</v>
       </c>
       <c r="O82" t="str">
-        <f t="shared" si="9"/>
-        <v>$env:choco:sqlserver2016:RSSVCPASSWORD=""</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>$env:choco:sqlserver2016:RSSVCACCOUNT=""</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C83" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>RSSVCStartupType</v>
+        <f t="shared" si="9"/>
+        <v>RSSVCPASSWORD</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>259</v>
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="J83" t="str">
-        <f t="shared" si="6"/>
-        <v>choco:sqlserver2016:RSSVCStartupType</v>
+        <f t="shared" si="10"/>
+        <v>choco:sqlserver2016:RSSVCPASSWORD</v>
       </c>
       <c r="K83">
         <v>1</v>
       </c>
       <c r="M83" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N83" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
+        <v>if (Test-Path env:\choco:sqlserver2016:RSSVCPASSWORD){Add-Content $configFile "RSSVCPASSWORD=`"$env:choco:sqlserver2016:RSSVCPASSWORD`""}</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="13"/>
+        <v>$env:choco:sqlserver2016:RSSVCPASSWORD=""</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C84" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>RSSVCStartupType</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="10"/>
+        <v>choco:sqlserver2016:RSSVCStartupType</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="N84" t="str">
+        <f t="shared" si="12"/>
         <v>if (Test-Path env:\choco:sqlserver2016:RSSVCStartupType){Add-Content $configFile "RSSVCStartupType=`"$env:choco:sqlserver2016:RSSVCStartupType`""}</v>
       </c>
-      <c r="O83" t="str">
-        <f t="shared" si="9"/>
+      <c r="O84" t="str">
+        <f t="shared" si="13"/>
         <v>$env:choco:sqlserver2016:RSSVCStartupType=""</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M84" t="str">
-        <f t="shared" ref="M84:M87" si="10">IF(L84,"if (!(Test-Path $env:"&amp;J84&amp;")){$env:"&amp;J84&amp;"="""&amp;G84&amp;"""}","")</f>
-        <v/>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M85" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="M85:M88" si="14">IF(L85,"if (!(Test-Path $env:"&amp;J85&amp;")){$env:"&amp;J85&amp;"="""&amp;G85&amp;"""}","")</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M86" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M87" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M88" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:N83"/>
+  <autoFilter ref="A3:N84"/>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" display="https://msdn.microsoft.com/en-us/library/dd239405.aspx"/>
-    <hyperlink ref="F17" r:id="rId2" location="InstanceID" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - InstanceID"/>
-    <hyperlink ref="D31" r:id="rId3" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - Accounts"/>
-    <hyperlink ref="F32" r:id="rId4" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - Accounts"/>
-    <hyperlink ref="F38" r:id="rId5" display="https://msdn.microsoft.com/en-us/library/hh231722.aspx"/>
-    <hyperlink ref="D40" r:id="rId6" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - Accounts"/>
-    <hyperlink ref="F41" r:id="rId7" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - Accounts"/>
-    <hyperlink ref="F49" r:id="rId8" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - Accounts"/>
-    <hyperlink ref="D58" r:id="rId9" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - Accounts"/>
-    <hyperlink ref="F59" r:id="rId10" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - Accounts"/>
-    <hyperlink ref="F69" r:id="rId11" display="https://msdn.microsoft.com/en-us/library/ms175935.aspx"/>
-    <hyperlink ref="D76" r:id="rId12" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - Accounts"/>
-    <hyperlink ref="F77" r:id="rId13" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - Accounts"/>
-    <hyperlink ref="D82" r:id="rId14" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - Accounts"/>
-    <hyperlink ref="F83" r:id="rId15" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - Accounts"/>
+    <hyperlink ref="F10" r:id="rId1" display="https://msdn.microsoft.com/en-us/library/dd239405.aspx"/>
+    <hyperlink ref="F18" r:id="rId2" location="InstanceID" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - InstanceID"/>
+    <hyperlink ref="D32" r:id="rId3" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - Accounts"/>
+    <hyperlink ref="F33" r:id="rId4" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - Accounts"/>
+    <hyperlink ref="F39" r:id="rId5" display="https://msdn.microsoft.com/en-us/library/hh231722.aspx"/>
+    <hyperlink ref="D41" r:id="rId6" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - Accounts"/>
+    <hyperlink ref="F42" r:id="rId7" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - Accounts"/>
+    <hyperlink ref="F50" r:id="rId8" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - Accounts"/>
+    <hyperlink ref="D59" r:id="rId9" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - Accounts"/>
+    <hyperlink ref="F60" r:id="rId10" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - Accounts"/>
+    <hyperlink ref="F70" r:id="rId11" display="https://msdn.microsoft.com/en-us/library/ms175935.aspx"/>
+    <hyperlink ref="D77" r:id="rId12" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - Accounts"/>
+    <hyperlink ref="F78" r:id="rId13" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - Accounts"/>
+    <hyperlink ref="D83" r:id="rId14" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - Accounts"/>
+    <hyperlink ref="F84" r:id="rId15" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259.aspx?f=255&amp;MSPPError=-2147217396 - Accounts"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
@@ -5948,7 +5994,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -5959,12 +6005,12 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -5973,122 +6019,122 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="9"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="9"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" ht="360" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="10"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -6099,12 +6145,12 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
@@ -6113,43 +6159,43 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -6160,12 +6206,12 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
@@ -6174,12 +6220,12 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="2" t="s">
         <v>29</v>
       </c>
@@ -6188,65 +6234,65 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="9"/>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="9"/>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="9"/>
+      <c r="C40" s="10"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="9"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -6257,12 +6303,12 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="3" t="s">
         <v>13</v>
       </c>
@@ -6271,19 +6317,19 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -6294,12 +6340,12 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
+      <c r="A48" s="10"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
+      <c r="A49" s="10"/>
       <c r="B49" s="3" t="s">
         <v>13</v>
       </c>
@@ -6308,65 +6354,65 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
+      <c r="A50" s="10"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
+      <c r="A51" s="10"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="9"/>
+      <c r="C53" s="10"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
+      <c r="A54" s="10"/>
       <c r="B54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="9"/>
+      <c r="C54" s="10"/>
     </row>
     <row r="55" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
+      <c r="A56" s="10"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="10"/>
+      <c r="C56" s="11"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
+      <c r="A57" s="10"/>
       <c r="B57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="10"/>
+      <c r="C57" s="11"/>
     </row>
     <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -6377,12 +6423,12 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="3" t="s">
         <v>6</v>
       </c>
@@ -6391,76 +6437,76 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
+      <c r="A62" s="10"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="9"/>
+      <c r="C62" s="10"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="9"/>
+      <c r="C63" s="10"/>
     </row>
     <row r="64" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
+      <c r="A65" s="10"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="9"/>
+      <c r="C65" s="10"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
+      <c r="A66" s="10"/>
       <c r="B66" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="9"/>
+      <c r="C66" s="10"/>
     </row>
     <row r="67" spans="1:3" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
+      <c r="A68" s="10"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="9"/>
+      <c r="C68" s="10"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
+      <c r="A69" s="10"/>
       <c r="B69" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="9"/>
+      <c r="C69" s="10"/>
     </row>
     <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -6471,12 +6517,12 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
+      <c r="A71" s="10"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
+      <c r="A72" s="10"/>
       <c r="B72" s="3" t="s">
         <v>13</v>
       </c>
@@ -6485,99 +6531,99 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
+      <c r="A74" s="10"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="9"/>
+      <c r="C74" s="10"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
+      <c r="A75" s="10"/>
       <c r="B75" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C75" s="9"/>
+      <c r="C75" s="10"/>
     </row>
     <row r="76" spans="1:3" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="9"/>
+      <c r="A77" s="10"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="9"/>
+      <c r="C77" s="10"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
+      <c r="A78" s="10"/>
       <c r="B78" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="9"/>
+      <c r="C78" s="10"/>
     </row>
     <row r="79" spans="1:3" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
+      <c r="A80" s="10"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="9"/>
+      <c r="C80" s="10"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
+      <c r="A81" s="10"/>
       <c r="B81" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="9"/>
+      <c r="C81" s="10"/>
     </row>
     <row r="82" spans="1:3" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
+      <c r="A83" s="10"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="9"/>
+      <c r="C83" s="10"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
+      <c r="A84" s="10"/>
       <c r="B84" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C84" s="9"/>
+      <c r="C84" s="10"/>
     </row>
     <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -6588,12 +6634,12 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
+      <c r="A86" s="10"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
+      <c r="A87" s="10"/>
       <c r="B87" s="3" t="s">
         <v>13</v>
       </c>
@@ -6602,55 +6648,55 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
+      <c r="A88" s="10"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
+      <c r="A89" s="10"/>
       <c r="B89" s="2"/>
       <c r="C89" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
+      <c r="A90" s="10"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
+      <c r="A91" s="10"/>
       <c r="B91" s="2"/>
       <c r="C91" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="9"/>
+      <c r="A92" s="10"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A93" s="9"/>
+      <c r="A93" s="10"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
+      <c r="A94" s="10"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="9"/>
+      <c r="A95" s="10"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -6661,12 +6707,12 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="9"/>
+      <c r="A97" s="10"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="9"/>
+      <c r="A98" s="10"/>
       <c r="B98" s="3" t="s">
         <v>13</v>
       </c>
@@ -6675,112 +6721,112 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="9"/>
+      <c r="A99" s="10"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
+      <c r="A100" s="10"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="9"/>
+      <c r="A101" s="10"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="9"/>
+      <c r="A102" s="10"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="9"/>
+      <c r="A103" s="10"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="9"/>
+      <c r="A104" s="10"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="9"/>
+      <c r="A106" s="10"/>
       <c r="B106" s="2"/>
-      <c r="C106" s="9"/>
+      <c r="C106" s="10"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="9"/>
+      <c r="A107" s="10"/>
       <c r="B107" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C107" s="9"/>
+      <c r="C107" s="10"/>
     </row>
     <row r="108" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="9"/>
+      <c r="A109" s="10"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="9"/>
+      <c r="C109" s="10"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="9"/>
+      <c r="A110" s="10"/>
       <c r="B110" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C110" s="9"/>
+      <c r="C110" s="10"/>
     </row>
     <row r="111" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="9"/>
+      <c r="A112" s="10"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="9"/>
+      <c r="C112" s="10"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="9"/>
+      <c r="A113" s="10"/>
       <c r="B113" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C113" s="9"/>
+      <c r="C113" s="10"/>
     </row>
     <row r="114" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -6791,12 +6837,12 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="9"/>
+      <c r="A115" s="10"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="9"/>
+      <c r="A116" s="10"/>
       <c r="B116" s="3" t="s">
         <v>13</v>
       </c>
@@ -6805,43 +6851,43 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="9"/>
+      <c r="A117" s="10"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="9"/>
+      <c r="A118" s="10"/>
       <c r="B118" s="2"/>
       <c r="C118" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="9"/>
+      <c r="A119" s="10"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="9"/>
+      <c r="A120" s="10"/>
       <c r="B120" s="2"/>
       <c r="C120" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="9"/>
+      <c r="A121" s="10"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="9"/>
+      <c r="A122" s="10"/>
       <c r="B122" s="2"/>
       <c r="C122" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -6852,12 +6898,12 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="9"/>
+      <c r="A124" s="10"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
     </row>
     <row r="125" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A125" s="9"/>
+      <c r="A125" s="10"/>
       <c r="B125" s="3" t="s">
         <v>13</v>
       </c>
@@ -6866,19 +6912,19 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="9"/>
+      <c r="A126" s="10"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
     </row>
     <row r="127" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A127" s="9"/>
+      <c r="A127" s="10"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -6889,12 +6935,12 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="9"/>
+      <c r="A129" s="10"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="9"/>
+      <c r="A130" s="10"/>
       <c r="B130" s="3" t="s">
         <v>13</v>
       </c>
@@ -6903,7 +6949,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -6914,12 +6960,12 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="9"/>
+      <c r="A132" s="10"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
     </row>
     <row r="133" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A133" s="9"/>
+      <c r="A133" s="10"/>
       <c r="B133" s="3" t="s">
         <v>13</v>
       </c>
@@ -6928,19 +6974,19 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="9"/>
+      <c r="A134" s="10"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
     </row>
     <row r="135" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A135" s="9"/>
+      <c r="A135" s="10"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="9" t="s">
+      <c r="A136" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -6951,12 +6997,12 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="9"/>
+      <c r="A137" s="10"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
     </row>
     <row r="138" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="9"/>
+      <c r="A138" s="10"/>
       <c r="B138" s="3" t="s">
         <v>13</v>
       </c>
@@ -6965,19 +7011,19 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="9"/>
+      <c r="A139" s="10"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
     </row>
     <row r="140" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A140" s="9"/>
+      <c r="A140" s="10"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -6988,12 +7034,12 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="9"/>
+      <c r="A142" s="10"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
     </row>
     <row r="143" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A143" s="9"/>
+      <c r="A143" s="10"/>
       <c r="B143" s="3" t="s">
         <v>13</v>
       </c>
@@ -7002,88 +7048,88 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="9"/>
+      <c r="A144" s="10"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
     </row>
     <row r="145" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A145" s="9"/>
+      <c r="A145" s="10"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="9" t="s">
+      <c r="A146" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C146" s="10" t="s">
+      <c r="C146" s="11" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="9"/>
+      <c r="A147" s="10"/>
       <c r="B147" s="2"/>
-      <c r="C147" s="10"/>
+      <c r="C147" s="11"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="9"/>
+      <c r="A148" s="10"/>
       <c r="B148" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C148" s="10"/>
+      <c r="C148" s="11"/>
     </row>
     <row r="149" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="9" t="s">
+      <c r="A149" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="C149" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="9"/>
+      <c r="A150" s="10"/>
       <c r="B150" s="2"/>
-      <c r="C150" s="9"/>
+      <c r="C150" s="10"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="9"/>
+      <c r="A151" s="10"/>
       <c r="B151" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C151" s="9"/>
+      <c r="C151" s="10"/>
     </row>
     <row r="152" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="9" t="s">
+      <c r="A152" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C152" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="9"/>
+      <c r="A153" s="10"/>
       <c r="B153" s="2"/>
-      <c r="C153" s="9"/>
+      <c r="C153" s="10"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="9"/>
+      <c r="A154" s="10"/>
       <c r="B154" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C154" s="9"/>
+      <c r="C154" s="10"/>
     </row>
     <row r="155" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A155" s="9" t="s">
+      <c r="A155" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -7094,12 +7140,12 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="9"/>
+      <c r="A156" s="10"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="9"/>
+      <c r="A157" s="10"/>
       <c r="B157" s="3" t="s">
         <v>13</v>
       </c>
@@ -7108,54 +7154,54 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="9"/>
+      <c r="A158" s="10"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="9"/>
+      <c r="A159" s="10"/>
       <c r="B159" s="2"/>
       <c r="C159" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="9"/>
+      <c r="A160" s="10"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="9"/>
+      <c r="A161" s="10"/>
       <c r="B161" s="2"/>
       <c r="C161" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="9" t="s">
+      <c r="A162" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C162" s="9" t="s">
+      <c r="C162" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="9"/>
+      <c r="A163" s="10"/>
       <c r="B163" s="2"/>
-      <c r="C163" s="9"/>
+      <c r="C163" s="10"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="9"/>
+      <c r="A164" s="10"/>
       <c r="B164" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C164" s="9"/>
+      <c r="C164" s="10"/>
     </row>
     <row r="165" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="9" t="s">
+      <c r="A165" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -7166,12 +7212,12 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="9"/>
+      <c r="A166" s="10"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
     </row>
     <row r="167" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A167" s="9"/>
+      <c r="A167" s="10"/>
       <c r="B167" s="3" t="s">
         <v>13</v>
       </c>
@@ -7180,19 +7226,19 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="9"/>
+      <c r="A168" s="10"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
     </row>
     <row r="169" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A169" s="9"/>
+      <c r="A169" s="10"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A170" s="9" t="s">
+      <c r="A170" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -7203,12 +7249,12 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="9"/>
+      <c r="A171" s="10"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="9"/>
+      <c r="A172" s="10"/>
       <c r="B172" s="3" t="s">
         <v>13</v>
       </c>
@@ -7217,7 +7263,7 @@
       </c>
     </row>
     <row r="173" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A173" s="9" t="s">
+      <c r="A173" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B173" s="2" t="s">
@@ -7228,12 +7274,12 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="9"/>
+      <c r="A174" s="10"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
     </row>
     <row r="175" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A175" s="9"/>
+      <c r="A175" s="10"/>
       <c r="B175" s="3" t="s">
         <v>129</v>
       </c>
@@ -7242,30 +7288,30 @@
       </c>
     </row>
     <row r="176" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A176" s="9" t="s">
+      <c r="A176" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C176" s="9" t="s">
+      <c r="C176" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="9"/>
+      <c r="A177" s="10"/>
       <c r="B177" s="2"/>
-      <c r="C177" s="9"/>
+      <c r="C177" s="10"/>
     </row>
     <row r="178" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A178" s="9"/>
+      <c r="A178" s="10"/>
       <c r="B178" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C178" s="9"/>
+      <c r="C178" s="10"/>
     </row>
     <row r="179" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A179" s="9" t="s">
+      <c r="A179" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -7276,12 +7322,12 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="9"/>
+      <c r="A180" s="10"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
     </row>
     <row r="181" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A181" s="9"/>
+      <c r="A181" s="10"/>
       <c r="B181" s="3" t="s">
         <v>129</v>
       </c>
@@ -7290,7 +7336,7 @@
       </c>
     </row>
     <row r="182" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A182" s="9" t="s">
+      <c r="A182" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -7301,12 +7347,12 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="9"/>
+      <c r="A183" s="10"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
     </row>
     <row r="184" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A184" s="9"/>
+      <c r="A184" s="10"/>
       <c r="B184" s="3" t="s">
         <v>129</v>
       </c>
@@ -7315,7 +7361,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="9" t="s">
+      <c r="A185" s="10" t="s">
         <v>138</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -7326,12 +7372,12 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="9"/>
+      <c r="A186" s="10"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="9"/>
+      <c r="A187" s="10"/>
       <c r="B187" s="3" t="s">
         <v>13</v>
       </c>
@@ -7340,54 +7386,54 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="9"/>
+      <c r="A188" s="10"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="9"/>
+      <c r="A189" s="10"/>
       <c r="B189" s="2"/>
       <c r="C189" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="9"/>
+      <c r="A190" s="10"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="9"/>
+      <c r="A191" s="10"/>
       <c r="B191" s="2"/>
       <c r="C191" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="9" t="s">
+      <c r="A192" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C192" s="9" t="s">
+      <c r="C192" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="9"/>
+      <c r="A193" s="10"/>
       <c r="B193" s="2"/>
-      <c r="C193" s="9"/>
+      <c r="C193" s="10"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="9"/>
+      <c r="A194" s="10"/>
       <c r="B194" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C194" s="9"/>
+      <c r="C194" s="10"/>
     </row>
     <row r="195" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A195" s="9" t="s">
+      <c r="A195" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -7398,12 +7444,12 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="9"/>
+      <c r="A196" s="10"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
     </row>
     <row r="197" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="9"/>
+      <c r="A197" s="10"/>
       <c r="B197" s="3" t="s">
         <v>13</v>
       </c>
@@ -7412,42 +7458,42 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="9"/>
+      <c r="A198" s="10"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
     </row>
     <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="9"/>
+      <c r="A199" s="10"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="9" t="s">
+      <c r="A200" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C200" s="9" t="s">
+      <c r="C200" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="9"/>
+      <c r="A201" s="10"/>
       <c r="B201" s="2"/>
-      <c r="C201" s="9"/>
+      <c r="C201" s="10"/>
     </row>
     <row r="202" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A202" s="9"/>
+      <c r="A202" s="10"/>
       <c r="B202" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C202" s="9"/>
+      <c r="C202" s="10"/>
     </row>
     <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="9" t="s">
+      <c r="A203" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -7458,12 +7504,12 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="9"/>
+      <c r="A204" s="10"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
     </row>
     <row r="205" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="9"/>
+      <c r="A205" s="10"/>
       <c r="B205" s="3" t="s">
         <v>13</v>
       </c>
@@ -7472,19 +7518,19 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="9"/>
+      <c r="A206" s="10"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="9"/>
+      <c r="A207" s="10"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="9" t="s">
+      <c r="A208" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -7495,12 +7541,12 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="9"/>
+      <c r="A209" s="10"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
     </row>
     <row r="210" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="9"/>
+      <c r="A210" s="10"/>
       <c r="B210" s="3" t="s">
         <v>13</v>
       </c>
@@ -7509,7 +7555,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="9" t="s">
+      <c r="A211" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -7520,12 +7566,12 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="9"/>
+      <c r="A212" s="10"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
     </row>
     <row r="213" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A213" s="9"/>
+      <c r="A213" s="10"/>
       <c r="B213" s="3" t="s">
         <v>13</v>
       </c>
@@ -7534,7 +7580,7 @@
       </c>
     </row>
     <row r="214" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A214" s="9" t="s">
+      <c r="A214" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -7545,12 +7591,12 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="9"/>
+      <c r="A215" s="10"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
     </row>
     <row r="216" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A216" s="9"/>
+      <c r="A216" s="10"/>
       <c r="B216" s="3" t="s">
         <v>13</v>
       </c>
@@ -7559,77 +7605,77 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="9"/>
+      <c r="A217" s="10"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="9"/>
+      <c r="A218" s="10"/>
       <c r="B218" s="2"/>
       <c r="C218" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="9"/>
+      <c r="A219" s="10"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="9"/>
+      <c r="A220" s="10"/>
       <c r="B220" s="2"/>
       <c r="C220" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="9" t="s">
+      <c r="A221" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C221" s="9" t="s">
+      <c r="C221" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="9"/>
+      <c r="A222" s="10"/>
       <c r="B222" s="2"/>
-      <c r="C222" s="9"/>
+      <c r="C222" s="10"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="9"/>
+      <c r="A223" s="10"/>
       <c r="B223" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C223" s="9"/>
+      <c r="C223" s="10"/>
     </row>
     <row r="224" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="9" t="s">
+      <c r="A224" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C224" s="9" t="s">
+      <c r="C224" s="10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="9"/>
+      <c r="A225" s="10"/>
       <c r="B225" s="2"/>
-      <c r="C225" s="9"/>
+      <c r="C225" s="10"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="9"/>
+      <c r="A226" s="10"/>
       <c r="B226" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C226" s="9"/>
+      <c r="C226" s="10"/>
     </row>
     <row r="227" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A227" s="9" t="s">
+      <c r="A227" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -7640,12 +7686,12 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="9"/>
+      <c r="A228" s="10"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="9"/>
+      <c r="A229" s="10"/>
       <c r="B229" s="3" t="s">
         <v>13</v>
       </c>
@@ -7654,31 +7700,31 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="9"/>
+      <c r="A230" s="10"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="9"/>
+      <c r="A231" s="10"/>
       <c r="B231" s="2"/>
       <c r="C231" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="9"/>
+      <c r="A232" s="10"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="9"/>
+      <c r="A233" s="10"/>
       <c r="B233" s="2"/>
       <c r="C233" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A234" s="9" t="s">
+      <c r="A234" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -7689,12 +7735,12 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="9"/>
+      <c r="A235" s="10"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
     </row>
     <row r="236" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A236" s="9"/>
+      <c r="A236" s="10"/>
       <c r="B236" s="3" t="s">
         <v>6</v>
       </c>
@@ -7703,7 +7749,7 @@
       </c>
     </row>
     <row r="237" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A237" s="9" t="s">
+      <c r="A237" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -7714,12 +7760,12 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="9"/>
+      <c r="A238" s="10"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
     </row>
     <row r="239" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A239" s="9"/>
+      <c r="A239" s="10"/>
       <c r="B239" s="3" t="s">
         <v>13</v>
       </c>
@@ -7728,19 +7774,19 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="9"/>
+      <c r="A240" s="10"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
     </row>
     <row r="241" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="9"/>
+      <c r="A241" s="10"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A242" s="9" t="s">
+      <c r="A242" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -7751,12 +7797,12 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="9"/>
+      <c r="A243" s="10"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
     </row>
     <row r="244" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A244" s="9"/>
+      <c r="A244" s="10"/>
       <c r="B244" s="3" t="s">
         <v>13</v>
       </c>
@@ -7765,19 +7811,19 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="9"/>
+      <c r="A245" s="10"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
     </row>
     <row r="246" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="9"/>
+      <c r="A246" s="10"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A247" s="9" t="s">
+      <c r="A247" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -7788,12 +7834,12 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="9"/>
+      <c r="A248" s="10"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="9"/>
+      <c r="A249" s="10"/>
       <c r="B249" s="3" t="s">
         <v>13</v>
       </c>
@@ -7802,43 +7848,43 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="9"/>
+      <c r="A250" s="10"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
     </row>
     <row r="251" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" s="9"/>
+      <c r="A251" s="10"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="9"/>
+      <c r="A252" s="10"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
     </row>
     <row r="253" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A253" s="9"/>
+      <c r="A253" s="10"/>
       <c r="B253" s="2"/>
       <c r="C253" s="3" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="9"/>
+      <c r="A254" s="10"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
     </row>
     <row r="255" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A255" s="9"/>
+      <c r="A255" s="10"/>
       <c r="B255" s="2"/>
       <c r="C255" s="3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A256" s="9" t="s">
+      <c r="A256" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B256" s="2" t="s">
@@ -7849,12 +7895,12 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="9"/>
+      <c r="A257" s="10"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="9"/>
+      <c r="A258" s="10"/>
       <c r="B258" s="3" t="s">
         <v>13</v>
       </c>
@@ -7863,31 +7909,31 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="9"/>
+      <c r="A259" s="10"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="9"/>
+      <c r="A260" s="10"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="9"/>
+      <c r="A261" s="10"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
     </row>
     <row r="262" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A262" s="9"/>
+      <c r="A262" s="10"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A263" s="9" t="s">
+      <c r="A263" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -7898,12 +7944,12 @@
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="9"/>
+      <c r="A264" s="10"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="9"/>
+      <c r="A265" s="10"/>
       <c r="B265" s="3" t="s">
         <v>13</v>
       </c>
@@ -7912,7 +7958,7 @@
       </c>
     </row>
     <row r="266" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A266" s="9" t="s">
+      <c r="A266" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B266" s="2" t="s">
@@ -7923,12 +7969,12 @@
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="9"/>
+      <c r="A267" s="10"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="9"/>
+      <c r="A268" s="10"/>
       <c r="B268" s="3" t="s">
         <v>13</v>
       </c>
@@ -7937,31 +7983,31 @@
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="9"/>
+      <c r="A269" s="10"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="9"/>
+      <c r="A270" s="10"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="9"/>
+      <c r="A271" s="10"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
     </row>
     <row r="272" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A272" s="9"/>
+      <c r="A272" s="10"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A273" s="9" t="s">
+      <c r="A273" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B273" s="2" t="s">
@@ -7972,12 +8018,12 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="9"/>
+      <c r="A274" s="10"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="9"/>
+      <c r="A275" s="10"/>
       <c r="B275" s="3" t="s">
         <v>13</v>
       </c>
@@ -7986,7 +8032,7 @@
       </c>
     </row>
     <row r="276" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A276" s="9" t="s">
+      <c r="A276" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B276" s="2" t="s">
@@ -7997,12 +8043,12 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="9"/>
+      <c r="A277" s="10"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
     </row>
     <row r="278" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A278" s="9"/>
+      <c r="A278" s="10"/>
       <c r="B278" s="3" t="s">
         <v>13</v>
       </c>
@@ -8011,7 +8057,7 @@
       </c>
     </row>
     <row r="279" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A279" s="9" t="s">
+      <c r="A279" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B279" s="2" t="s">
@@ -8022,12 +8068,12 @@
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="9"/>
+      <c r="A280" s="10"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="9"/>
+      <c r="A281" s="10"/>
       <c r="B281" s="3" t="s">
         <v>13</v>
       </c>
@@ -8036,19 +8082,19 @@
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="9"/>
+      <c r="A282" s="10"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="9"/>
+      <c r="A283" s="10"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A284" s="9" t="s">
+      <c r="A284" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B284" s="2" t="s">
@@ -8059,12 +8105,12 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="9"/>
+      <c r="A285" s="10"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
     </row>
     <row r="286" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A286" s="9"/>
+      <c r="A286" s="10"/>
       <c r="B286" s="3" t="s">
         <v>13</v>
       </c>
@@ -8073,7 +8119,7 @@
       </c>
     </row>
     <row r="287" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A287" s="9" t="s">
+      <c r="A287" s="10" t="s">
         <v>210</v>
       </c>
       <c r="B287" s="2" t="s">
@@ -8084,12 +8130,12 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="9"/>
+      <c r="A288" s="10"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
     </row>
     <row r="289" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A289" s="9"/>
+      <c r="A289" s="10"/>
       <c r="B289" s="3" t="s">
         <v>13</v>
       </c>
@@ -8098,78 +8144,78 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="9"/>
+      <c r="A290" s="10"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="9"/>
+      <c r="A291" s="10"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="9"/>
+      <c r="A292" s="10"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
     </row>
     <row r="293" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A293" s="9"/>
+      <c r="A293" s="10"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="9"/>
+      <c r="A294" s="10"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
     </row>
     <row r="295" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A295" s="9"/>
+      <c r="A295" s="10"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A296" s="9" t="s">
+      <c r="A296" s="10" t="s">
         <v>210</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C296" s="9" t="s">
+      <c r="C296" s="10" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="9"/>
+      <c r="A297" s="10"/>
       <c r="B297" s="2"/>
-      <c r="C297" s="9"/>
+      <c r="C297" s="10"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="9"/>
+      <c r="A298" s="10"/>
       <c r="B298" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C298" s="9"/>
+      <c r="C298" s="10"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="9"/>
+      <c r="A299" s="10"/>
       <c r="B299" s="2"/>
-      <c r="C299" s="9"/>
+      <c r="C299" s="10"/>
     </row>
     <row r="300" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A300" s="9"/>
+      <c r="A300" s="10"/>
       <c r="B300" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C300" s="9"/>
+      <c r="C300" s="10"/>
     </row>
     <row r="301" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A301" s="9" t="s">
+      <c r="A301" s="10" t="s">
         <v>220</v>
       </c>
       <c r="B301" s="2" t="s">
@@ -8180,12 +8226,12 @@
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="9"/>
+      <c r="A302" s="10"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
     </row>
     <row r="303" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A303" s="9"/>
+      <c r="A303" s="10"/>
       <c r="B303" s="3" t="s">
         <v>13</v>
       </c>
@@ -8194,19 +8240,19 @@
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="9"/>
+      <c r="A304" s="10"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="9"/>
+      <c r="A305" s="10"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A306" s="9" t="s">
+      <c r="A306" s="10" t="s">
         <v>220</v>
       </c>
       <c r="B306" s="2" t="s">
@@ -8217,12 +8263,12 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="9"/>
+      <c r="A307" s="10"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="9"/>
+      <c r="A308" s="10"/>
       <c r="B308" s="3" t="s">
         <v>13</v>
       </c>
@@ -8231,7 +8277,7 @@
       </c>
     </row>
     <row r="309" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A309" s="9" t="s">
+      <c r="A309" s="10" t="s">
         <v>228</v>
       </c>
       <c r="B309" s="2" t="s">
@@ -8242,12 +8288,12 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="9"/>
+      <c r="A310" s="10"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="9"/>
+      <c r="A311" s="10"/>
       <c r="B311" s="3" t="s">
         <v>6</v>
       </c>
@@ -8256,53 +8302,53 @@
       </c>
     </row>
     <row r="312" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="9" t="s">
+      <c r="A312" s="10" t="s">
         <v>228</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C312" s="9" t="s">
+      <c r="C312" s="10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="9"/>
+      <c r="A313" s="10"/>
       <c r="B313" s="2"/>
-      <c r="C313" s="9"/>
+      <c r="C313" s="10"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="9"/>
+      <c r="A314" s="10"/>
       <c r="B314" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C314" s="9"/>
+      <c r="C314" s="10"/>
     </row>
     <row r="315" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="9" t="s">
+      <c r="A315" s="10" t="s">
         <v>228</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C315" s="10" t="s">
+      <c r="C315" s="11" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="9"/>
+      <c r="A316" s="10"/>
       <c r="B316" s="2"/>
-      <c r="C316" s="10"/>
+      <c r="C316" s="11"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="9"/>
+      <c r="A317" s="10"/>
       <c r="B317" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C317" s="10"/>
+      <c r="C317" s="11"/>
     </row>
     <row r="318" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A318" s="9" t="s">
+      <c r="A318" s="10" t="s">
         <v>236</v>
       </c>
       <c r="B318" s="2" t="s">
@@ -8313,12 +8359,12 @@
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="9"/>
+      <c r="A319" s="10"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="9"/>
+      <c r="A320" s="10"/>
       <c r="B320" s="3" t="s">
         <v>13</v>
       </c>
@@ -8327,19 +8373,19 @@
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="9"/>
+      <c r="A321" s="10"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="9"/>
+      <c r="A322" s="10"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A323" s="9" t="s">
+      <c r="A323" s="10" t="s">
         <v>236</v>
       </c>
       <c r="B323" s="2" t="s">
@@ -8350,12 +8396,12 @@
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="9"/>
+      <c r="A324" s="10"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="9"/>
+      <c r="A325" s="10"/>
       <c r="B325" s="3" t="s">
         <v>13</v>
       </c>
@@ -8364,19 +8410,19 @@
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="9"/>
+      <c r="A326" s="10"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="9"/>
+      <c r="A327" s="10"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A328" s="9" t="s">
+      <c r="A328" s="10" t="s">
         <v>245</v>
       </c>
       <c r="B328" s="2" t="s">
@@ -8387,12 +8433,12 @@
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="9"/>
+      <c r="A329" s="10"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="9"/>
+      <c r="A330" s="10"/>
       <c r="B330" s="3" t="s">
         <v>13</v>
       </c>
@@ -8401,217 +8447,155 @@
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="9"/>
+      <c r="A331" s="10"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="9"/>
+      <c r="A332" s="10"/>
       <c r="B332" s="2"/>
       <c r="C332" s="3" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="9"/>
+      <c r="A333" s="10"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="9"/>
+      <c r="A334" s="10"/>
       <c r="B334" s="2"/>
       <c r="C334" s="3" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="9"/>
+      <c r="A335" s="10"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
     </row>
     <row r="336" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A336" s="9"/>
+      <c r="A336" s="10"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="9"/>
+      <c r="A337" s="10"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
     </row>
     <row r="338" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A338" s="9"/>
+      <c r="A338" s="10"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="9"/>
+      <c r="A339" s="10"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
     </row>
     <row r="340" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A340" s="9"/>
+      <c r="A340" s="10"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="9" t="s">
+      <c r="A341" s="10" t="s">
         <v>245</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C341" s="9" t="s">
+      <c r="C341" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="9"/>
+      <c r="A342" s="10"/>
       <c r="B342" s="2"/>
-      <c r="C342" s="9"/>
+      <c r="C342" s="10"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="9"/>
+      <c r="A343" s="10"/>
       <c r="B343" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C343" s="9"/>
+      <c r="C343" s="10"/>
     </row>
     <row r="344" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="9" t="s">
+      <c r="A344" s="10" t="s">
         <v>245</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C344" s="9" t="s">
+      <c r="C344" s="10" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="9"/>
+      <c r="A345" s="10"/>
       <c r="B345" s="2"/>
-      <c r="C345" s="9"/>
+      <c r="C345" s="10"/>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="9"/>
+      <c r="A346" s="10"/>
       <c r="B346" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C346" s="9"/>
+      <c r="C346" s="10"/>
     </row>
     <row r="347" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="9" t="s">
+      <c r="A347" s="10" t="s">
         <v>245</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C347" s="10" t="s">
+      <c r="C347" s="11" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" s="9"/>
+      <c r="A348" s="10"/>
       <c r="B348" s="2"/>
-      <c r="C348" s="10"/>
+      <c r="C348" s="11"/>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="9"/>
+      <c r="A349" s="10"/>
       <c r="B349" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C349" s="10"/>
+      <c r="C349" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="A347:A349"/>
-    <mergeCell ref="C347:C349"/>
-    <mergeCell ref="A318:A322"/>
-    <mergeCell ref="A323:A327"/>
-    <mergeCell ref="A328:A340"/>
-    <mergeCell ref="A341:A343"/>
-    <mergeCell ref="C341:C343"/>
-    <mergeCell ref="A344:A346"/>
-    <mergeCell ref="C344:C346"/>
-    <mergeCell ref="A306:A308"/>
-    <mergeCell ref="A309:A311"/>
-    <mergeCell ref="A312:A314"/>
-    <mergeCell ref="C312:C314"/>
-    <mergeCell ref="A315:A317"/>
-    <mergeCell ref="C315:C317"/>
-    <mergeCell ref="A279:A283"/>
-    <mergeCell ref="A284:A286"/>
-    <mergeCell ref="A287:A295"/>
-    <mergeCell ref="A296:A300"/>
-    <mergeCell ref="C296:C300"/>
-    <mergeCell ref="A301:A305"/>
-    <mergeCell ref="A247:A255"/>
-    <mergeCell ref="A256:A262"/>
-    <mergeCell ref="A263:A265"/>
-    <mergeCell ref="A266:A272"/>
-    <mergeCell ref="A273:A275"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="A227:A233"/>
-    <mergeCell ref="A234:A236"/>
-    <mergeCell ref="A237:A241"/>
-    <mergeCell ref="A242:A246"/>
-    <mergeCell ref="A203:A207"/>
-    <mergeCell ref="A208:A210"/>
-    <mergeCell ref="A211:A213"/>
-    <mergeCell ref="A214:A220"/>
-    <mergeCell ref="A221:A223"/>
-    <mergeCell ref="C221:C223"/>
-    <mergeCell ref="A185:A191"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="A195:A199"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="C176:C178"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="A155:A161"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A141:A145"/>
-    <mergeCell ref="A146:A148"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="A149:A151"/>
-    <mergeCell ref="C149:C151"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="A114:A122"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A85:A95"/>
-    <mergeCell ref="A96:A104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A35"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="A67:A69"/>
@@ -8626,25 +8610,87 @@
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="C61:C63"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="A85:A95"/>
+    <mergeCell ref="A96:A104"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A146:A148"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="A149:A151"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="A114:A122"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="C176:C178"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="A155:A161"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A203:A207"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="A211:A213"/>
+    <mergeCell ref="A214:A220"/>
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="A185:A191"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="A195:A199"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="A247:A255"/>
+    <mergeCell ref="A256:A262"/>
+    <mergeCell ref="A263:A265"/>
+    <mergeCell ref="A266:A272"/>
+    <mergeCell ref="A273:A275"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="A227:A233"/>
+    <mergeCell ref="A234:A236"/>
+    <mergeCell ref="A237:A241"/>
+    <mergeCell ref="A242:A246"/>
+    <mergeCell ref="A306:A308"/>
+    <mergeCell ref="A309:A311"/>
+    <mergeCell ref="A312:A314"/>
+    <mergeCell ref="C312:C314"/>
+    <mergeCell ref="A315:A317"/>
+    <mergeCell ref="C315:C317"/>
+    <mergeCell ref="A279:A283"/>
+    <mergeCell ref="A284:A286"/>
+    <mergeCell ref="A287:A295"/>
+    <mergeCell ref="A296:A300"/>
+    <mergeCell ref="C296:C300"/>
+    <mergeCell ref="A301:A305"/>
+    <mergeCell ref="A347:A349"/>
+    <mergeCell ref="C347:C349"/>
+    <mergeCell ref="A318:A322"/>
+    <mergeCell ref="A323:A327"/>
+    <mergeCell ref="A328:A340"/>
+    <mergeCell ref="A341:A343"/>
+    <mergeCell ref="C341:C343"/>
+    <mergeCell ref="A344:A346"/>
+    <mergeCell ref="C344:C346"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C17" r:id="rId1" display="https://msdn.microsoft.com/en-us/library/dd239405.aspx"/>

--- a/sqlserver2016/sql2016_ParamGenerator.xlsx
+++ b/sqlserver2016/sql2016_ParamGenerator.xlsx
@@ -2304,9 +2304,6 @@
     <t>Should Set Default if not defined</t>
   </si>
   <si>
-    <t xml:space="preserve">MSSQLSERVER </t>
-  </si>
-  <si>
     <t>NT Service\MSSQLSERVER</t>
   </si>
   <si>
@@ -2323,6 +2320,9 @@
   </si>
   <si>
     <t xml:space="preserve">Specifies that SQL Server Setup should not display the privacy statement when ran from the command line. </t>
+  </si>
+  <si>
+    <t>MSSQLSERVER</t>
   </si>
 </sst>
 </file>
@@ -2739,8 +2739,8 @@
   <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2802,7 +2802,7 @@
         <v>586</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2857,13 +2857,13 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>593</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>594</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -2955,22 +2955,22 @@
         <v>1</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" ref="J6:J69" si="5">"choco:sqlserver2016:"&amp;C7</f>
+        <f t="shared" ref="J7:J69" si="5">"choco:sqlserver2016:"&amp;C7</f>
         <v>choco:sqlserver2016:ENU</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" ref="M6:M69" si="6">IF(L7,"if (!(Test-Path env:\"&amp;J7&amp;")){$env:"&amp;J7&amp;"="""&amp;G7&amp;"""}","")</f>
+        <f t="shared" ref="M7:M69" si="6">IF(L7,"if (!(Test-Path env:\"&amp;J7&amp;")){$env:"&amp;J7&amp;"="""&amp;G7&amp;"""}","")</f>
         <v/>
       </c>
       <c r="N7" t="str">
-        <f t="shared" ref="N6:N69" si="7">"if (Test-Path env:\"&amp;J7&amp;"){Add-Content $configFile """&amp;C7&amp;"=`""$env:"&amp;J7&amp;"`""""}"</f>
+        <f t="shared" ref="N7:N69" si="7">"if (Test-Path env:\"&amp;J7&amp;"){Add-Content $configFile """&amp;C7&amp;"=`""$env:"&amp;J7&amp;"`""""}"</f>
         <v>if (Test-Path env:\choco:sqlserver2016:ENU){Add-Content $configFile "ENU=`"$env:choco:sqlserver2016:ENU`""}</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" ref="O6:O69" si="8">"$env:"&amp;J7&amp;"="""""</f>
+        <f t="shared" ref="O7:O69" si="8">"$env:"&amp;J7&amp;"="""""</f>
         <v>$env:choco:sqlserver2016:ENU=""</v>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
         <v>50</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="5"/>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="M19" t="str">
         <f t="shared" si="6"/>
-        <v>if (!(Test-Path env:\choco:sqlserver2016:INSTANCENAME)){$env:choco:sqlserver2016:INSTANCENAME="MSSQLSERVER "}</v>
+        <v>if (!(Test-Path env:\choco:sqlserver2016:INSTANCENAME)){$env:choco:sqlserver2016:INSTANCENAME="MSSQLSERVER"}</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="7"/>
@@ -3886,7 +3886,7 @@
         <v>83</v>
       </c>
       <c r="G31" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="5"/>
@@ -4909,7 +4909,7 @@
         <v>167</v>
       </c>
       <c r="G58" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" si="5"/>
@@ -5035,7 +5035,7 @@
         <v>566</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J61" t="str">
         <f t="shared" si="5"/>
@@ -8577,25 +8577,87 @@
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A347:A349"/>
+    <mergeCell ref="C347:C349"/>
+    <mergeCell ref="A318:A322"/>
+    <mergeCell ref="A323:A327"/>
+    <mergeCell ref="A328:A340"/>
+    <mergeCell ref="A341:A343"/>
+    <mergeCell ref="C341:C343"/>
+    <mergeCell ref="A344:A346"/>
+    <mergeCell ref="C344:C346"/>
+    <mergeCell ref="A306:A308"/>
+    <mergeCell ref="A309:A311"/>
+    <mergeCell ref="A312:A314"/>
+    <mergeCell ref="C312:C314"/>
+    <mergeCell ref="A315:A317"/>
+    <mergeCell ref="C315:C317"/>
+    <mergeCell ref="A279:A283"/>
+    <mergeCell ref="A284:A286"/>
+    <mergeCell ref="A287:A295"/>
+    <mergeCell ref="A296:A300"/>
+    <mergeCell ref="C296:C300"/>
+    <mergeCell ref="A301:A305"/>
+    <mergeCell ref="A247:A255"/>
+    <mergeCell ref="A256:A262"/>
+    <mergeCell ref="A263:A265"/>
+    <mergeCell ref="A266:A272"/>
+    <mergeCell ref="A273:A275"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="A227:A233"/>
+    <mergeCell ref="A234:A236"/>
+    <mergeCell ref="A237:A241"/>
+    <mergeCell ref="A242:A246"/>
+    <mergeCell ref="A203:A207"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="A211:A213"/>
+    <mergeCell ref="A214:A220"/>
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="A185:A191"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="A195:A199"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="C176:C178"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="A155:A161"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A146:A148"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="A149:A151"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="A114:A122"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A85:A95"/>
+    <mergeCell ref="A96:A104"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="C82:C84"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="A67:A69"/>
@@ -8610,87 +8672,25 @@
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="C61:C63"/>
-    <mergeCell ref="A85:A95"/>
-    <mergeCell ref="A96:A104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A141:A145"/>
-    <mergeCell ref="A146:A148"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="A149:A151"/>
-    <mergeCell ref="C149:C151"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="A114:A122"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="C176:C178"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="A155:A161"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A203:A207"/>
-    <mergeCell ref="A208:A210"/>
-    <mergeCell ref="A211:A213"/>
-    <mergeCell ref="A214:A220"/>
-    <mergeCell ref="A221:A223"/>
-    <mergeCell ref="C221:C223"/>
-    <mergeCell ref="A185:A191"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="A195:A199"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="A247:A255"/>
-    <mergeCell ref="A256:A262"/>
-    <mergeCell ref="A263:A265"/>
-    <mergeCell ref="A266:A272"/>
-    <mergeCell ref="A273:A275"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="A227:A233"/>
-    <mergeCell ref="A234:A236"/>
-    <mergeCell ref="A237:A241"/>
-    <mergeCell ref="A242:A246"/>
-    <mergeCell ref="A306:A308"/>
-    <mergeCell ref="A309:A311"/>
-    <mergeCell ref="A312:A314"/>
-    <mergeCell ref="C312:C314"/>
-    <mergeCell ref="A315:A317"/>
-    <mergeCell ref="C315:C317"/>
-    <mergeCell ref="A279:A283"/>
-    <mergeCell ref="A284:A286"/>
-    <mergeCell ref="A287:A295"/>
-    <mergeCell ref="A296:A300"/>
-    <mergeCell ref="C296:C300"/>
-    <mergeCell ref="A301:A305"/>
-    <mergeCell ref="A347:A349"/>
-    <mergeCell ref="C347:C349"/>
-    <mergeCell ref="A318:A322"/>
-    <mergeCell ref="A323:A327"/>
-    <mergeCell ref="A328:A340"/>
-    <mergeCell ref="A341:A343"/>
-    <mergeCell ref="C341:C343"/>
-    <mergeCell ref="A344:A346"/>
-    <mergeCell ref="C344:C346"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="C36:C38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C17" r:id="rId1" display="https://msdn.microsoft.com/en-us/library/dd239405.aspx"/>
